--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>628000</v>
+      </c>
+      <c r="F8" s="3">
         <v>697000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>652000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>623000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>637000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>578000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>565000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>581000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>500000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>456000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>409000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>409000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>215000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>131000</v>
+      </c>
+      <c r="F9" s="3">
         <v>177000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>173000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>162000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>142000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>119000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>108000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>94000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>78000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>61000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>51000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>35000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>22000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>581000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>497000</v>
+      </c>
+      <c r="F10" s="3">
         <v>520000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>479000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>461000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>495000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>459000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>457000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>487000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>422000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>395000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>358000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>374000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>193000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,26 +1022,26 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>-93000</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>-93000</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>319000</v>
+      </c>
+      <c r="F17" s="3">
         <v>362000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>361000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>381000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>325000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>282000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>282000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>281000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>136000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>219000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>234000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>196000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>187000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>309000</v>
+      </c>
+      <c r="F18" s="3">
         <v>335000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>291000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>242000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>312000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>296000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>283000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>364000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>237000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>175000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>213000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>28000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-54000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-66000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>97000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>40000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>29000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>322000</v>
+      </c>
+      <c r="F21" s="3">
         <v>288000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>232000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>346000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>317000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>282000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>276000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>347000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>371000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>274000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>210000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>219000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>35000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>312000</v>
+      </c>
+      <c r="F23" s="3">
         <v>281000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>225000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>339000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>309000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>276000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>271000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>340000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>364000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>268000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>204000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>213000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>23000</v>
       </c>
       <c r="L24" s="3">
         <v>21000</v>
       </c>
       <c r="M24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="O24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>294000</v>
+      </c>
+      <c r="F26" s="3">
         <v>261000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>210000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>324000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>290000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>258000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>258000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>319000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>341000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>247000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>187000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F27" s="3">
         <v>36000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>32000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>49000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>43000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>39000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>41000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>46000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>175000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>31000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>23000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>24000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-177000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-177000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>54000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>66000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-97000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-40000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-29000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F33" s="3">
         <v>36000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>32000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>49000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>43000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>39000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>41000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>46000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>31000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>23000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>24000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F35" s="3">
         <v>36000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>32000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>49000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>43000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>39000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>41000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>46000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>31000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>23000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>24000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3101000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2882000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3035000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3162000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2546000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2597000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3062000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1901000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1732000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2056000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2115000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1656000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1925000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21740000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32147000</v>
+      </c>
+      <c r="F43" s="3">
         <v>26969000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>26770000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>26746000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27864000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>31876000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>30221000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>30565000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>30760000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>26444000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>24056000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>22387000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>20506000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,69 +2434,81 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6082000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8943000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7284000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>6522000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7103000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6692000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>6470000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6209000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6060000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8146000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7364000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6834000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7058000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7777000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>118000</v>
+      </c>
+      <c r="F48" s="3">
         <v>122000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>127000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>131000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -2301,11 +2516,11 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>44459000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27224000</v>
+      </c>
+      <c r="F52" s="3">
         <v>30040000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>29092000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>26575000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>23098000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>20355000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>21054000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>20268000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>20232000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>23566000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>24187000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>24710000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>24017000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>75849000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>71676000</v>
+      </c>
+      <c r="F54" s="3">
         <v>67804000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>66034000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>63526000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60547000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62062000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>60303000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>59093000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>61162000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>59843000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>57597000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>56257000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>54673000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,140 +2878,160 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63348000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>56791000</v>
+      </c>
+      <c r="F57" s="3">
         <v>55041000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>53763000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>51403000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48615000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>50347000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>48660000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>47928000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>48165000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>48167000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>46777000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>44865000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>42335000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>15000</v>
+        <v>1925000</v>
       </c>
       <c r="F58" s="3">
         <v>15000</v>
       </c>
       <c r="G58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>28000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>193000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>19000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1331000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>38000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>9000</v>
       </c>
       <c r="N58" s="3">
         <v>38000</v>
       </c>
       <c r="O58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P58" s="3">
+        <v>38000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>74000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F59" s="3">
         <v>163000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>178000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>177000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>41000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>35000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>29000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>22000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74363000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>70224000</v>
+      </c>
+      <c r="F66" s="3">
         <v>66399000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>64654000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>62201000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>59265000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>60819000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>59120000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>57961000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>60072000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>58747000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>56548000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>55260000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>53699000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>520000</v>
+      </c>
+      <c r="F72" s="3">
         <v>484000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>456000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>431000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>390000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>354000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>323000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>290000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>251000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>260000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>236000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>220000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>203000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1486000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1405000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1380000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1325000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1282000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1243000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1183000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1132000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1090000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1096000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1049000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>997000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>974000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F81" s="3">
         <v>36000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>32000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>49000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>43000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>39000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>41000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>46000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>31000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>23000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>24000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="F83" s="3">
         <v>7000</v>
       </c>
       <c r="G83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>6000</v>
       </c>
       <c r="N83" s="3">
         <v>6000</v>
       </c>
       <c r="O83" s="3">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P83" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R83" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5203000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>488000</v>
+      </c>
+      <c r="F89" s="3">
         <v>133000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1442000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>603000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-408000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>632000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>931000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1201000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>709000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>807000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>779000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>430000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7000</v>
       </c>
       <c r="J91" s="3">
         <v>-8000</v>
       </c>
       <c r="K91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-12000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-42000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-17000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,7 +4624,7 @@
         <v>-8000</v>
       </c>
       <c r="E96" s="3">
-        <v>-7000</v>
+        <v>-8000</v>
       </c>
       <c r="F96" s="3">
         <v>-8000</v>
@@ -4172,7 +4639,7 @@
         <v>-7000</v>
       </c>
       <c r="J96" s="3">
-        <v>-7000</v>
+        <v>-8000</v>
       </c>
       <c r="K96" s="3">
         <v>-7000</v>
@@ -4187,13 +4654,19 @@
         <v>-7000</v>
       </c>
       <c r="O96" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="P96" s="3">
         <v>-7000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-242000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-46000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-70000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-58000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-222000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-55000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-64000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-80000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-133000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-84000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-77000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>9000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-28000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-78000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>38000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>23000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-47000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5091000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>453000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-152000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1392000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>489000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-485000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>399000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>770000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1137000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>577000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>757000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>719000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>375000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E8" s="3">
         <v>694000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>628000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>697000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>652000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>623000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>637000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>578000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>565000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>581000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>456000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>409000</v>
       </c>
       <c r="P8" s="3">
         <v>409000</v>
       </c>
       <c r="Q8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="R8" s="3">
         <v>215000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E9" s="3">
         <v>113000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>177000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>173000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>162000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>119000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E10" s="3">
         <v>581000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>497000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>520000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>479000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>461000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>495000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>459000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>457000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>487000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>422000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>395000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>358000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>374000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>193000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1040,11 +1060,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E17" s="3">
         <v>337000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>319000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>362000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>381000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>325000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>282000</v>
       </c>
       <c r="K17" s="3">
         <v>282000</v>
       </c>
       <c r="L17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="M17" s="3">
         <v>281000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>136000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>234000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>196000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>187000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E18" s="3">
         <v>357000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>309000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>335000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>291000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>242000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>312000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>296000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>283000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>364000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>237000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>175000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>213000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-49000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-54000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-66000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>97000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E21" s="3">
         <v>318000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>322000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>288000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>232000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>346000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>317000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>282000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>276000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>347000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>371000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>274000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>210000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>219000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>35000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E23" s="3">
         <v>308000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>312000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>281000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>225000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>339000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>309000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>276000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>271000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>340000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>364000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>268000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>204000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>213000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E24" s="3">
         <v>18000</v>
       </c>
       <c r="F24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G24" s="3">
         <v>20000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>15000</v>
       </c>
       <c r="H24" s="3">
         <v>15000</v>
       </c>
       <c r="I24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E26" s="3">
         <v>290000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>294000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>261000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>210000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>324000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>290000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>258000</v>
       </c>
       <c r="K26" s="3">
         <v>258000</v>
       </c>
       <c r="L26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="M26" s="3">
         <v>319000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>341000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>247000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>187000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E27" s="3">
         <v>46000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>175000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>49000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>54000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>66000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-97000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E33" s="3">
         <v>46000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E35" s="3">
         <v>46000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3115000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3101000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2882000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3035000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3162000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2546000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2597000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3062000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1901000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1732000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2056000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2115000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1925000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27154000</v>
+      </c>
+      <c r="E43" s="3">
         <v>21740000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32147000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26969000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26770000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26746000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27864000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31876000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30221000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30565000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30760000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26444000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24056000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22387000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20506000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,78 +2542,84 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7092000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6082000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8943000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7284000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6522000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7103000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6692000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6470000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6209000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6060000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8146000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7364000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6834000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7058000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7777000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E48" s="3">
         <v>114000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>118000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>122000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>127000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>131000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2522,8 +2630,8 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46134000</v>
+      </c>
+      <c r="E52" s="3">
         <v>44459000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27224000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30040000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29092000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26575000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23098000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20355000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21054000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20268000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20232000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23566000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24187000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24710000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24017000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83965000</v>
+      </c>
+      <c r="E54" s="3">
         <v>75849000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71676000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67804000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66034000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63526000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60547000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62062000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60303000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59093000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61162000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59843000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57597000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56257000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54673000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,158 +3010,168 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69360000</v>
+      </c>
+      <c r="E57" s="3">
         <v>63348000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56791000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55041000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53763000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51403000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48615000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50347000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48660000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47928000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48165000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48167000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46777000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44865000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42335000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>5995000</v>
       </c>
       <c r="E58" s="3">
-        <v>1925000</v>
+        <v>4058000</v>
       </c>
       <c r="F58" s="3">
-        <v>15000</v>
+        <v>6335000</v>
       </c>
       <c r="G58" s="3">
-        <v>15000</v>
+        <v>3970000</v>
       </c>
       <c r="H58" s="3">
-        <v>15000</v>
+        <v>4116000</v>
       </c>
       <c r="I58" s="3">
-        <v>17000</v>
+        <v>4265000</v>
       </c>
       <c r="J58" s="3">
+        <v>4054000</v>
+      </c>
+      <c r="K58" s="3">
         <v>28000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>193000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1331000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>74000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E59" s="3">
         <v>135000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>153000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>163000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>178000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>177000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82427000</v>
+      </c>
+      <c r="E66" s="3">
         <v>74363000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70224000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66399000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64654000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62201000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59265000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60819000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59120000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57961000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60072000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58747000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56548000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55260000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53699000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E72" s="3">
         <v>558000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>520000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>484000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>456000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>431000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>390000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>354000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>323000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>290000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>251000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>260000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>236000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>220000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>203000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1486000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1452000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1405000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1380000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1325000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1282000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1243000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1132000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1090000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1096000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1049000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>997000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>974000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E81" s="3">
         <v>46000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,7 +4236,7 @@
         <v>10000</v>
       </c>
       <c r="F83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G83" s="3">
         <v>7000</v>
@@ -4046,22 +4245,22 @@
         <v>7000</v>
       </c>
       <c r="I83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7000</v>
       </c>
       <c r="M83" s="3">
         <v>7000</v>
       </c>
       <c r="N83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O83" s="3">
         <v>6000</v>
@@ -4070,13 +4269,16 @@
         <v>6000</v>
       </c>
       <c r="Q83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R83" s="3">
         <v>7000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1557000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5203000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>488000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>133000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1442000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>603000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-408000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>632000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>931000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1201000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>709000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>807000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>779000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>430000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-10000</v>
       </c>
       <c r="E91" s="3">
         <v>-12000</v>
       </c>
       <c r="F91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-4000</v>
       </c>
       <c r="O94" s="3">
         <v>-4000</v>
       </c>
       <c r="P94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8000</v>
+        <v>-7000</v>
       </c>
       <c r="E96" s="3">
         <v>-8000</v>
@@ -4630,19 +4864,19 @@
         <v>-8000</v>
       </c>
       <c r="G96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7000</v>
       </c>
       <c r="L96" s="3">
         <v>-7000</v>
@@ -4660,13 +4894,16 @@
         <v>-7000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-61000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-242000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-70000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-58000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-222000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-80000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-133000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-84000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>38000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-28000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-78000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>38000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-47000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1574000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5091000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>453000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-152000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1392000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>489000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-485000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>399000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>770000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1137000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>577000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>757000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>719000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>375000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E8" s="3">
         <v>571000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>694000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>628000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>697000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>652000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>623000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>637000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>578000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>565000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>581000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>456000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>409000</v>
       </c>
       <c r="Q8" s="3">
         <v>409000</v>
       </c>
       <c r="R8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="S8" s="3">
         <v>215000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="3">
         <v>48000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>113000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>177000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>173000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>162000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>119000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>108000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E10" s="3">
         <v>523000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>581000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>497000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>520000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>479000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>461000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>495000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>459000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>457000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>487000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>422000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>395000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>358000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>374000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>193000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E17" s="3">
         <v>365000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>337000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>319000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>362000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>381000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>325000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>282000</v>
       </c>
       <c r="L17" s="3">
         <v>282000</v>
       </c>
       <c r="M17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="N17" s="3">
         <v>281000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>136000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>219000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>234000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>196000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>187000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E18" s="3">
         <v>206000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>357000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>309000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>335000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>291000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>242000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>312000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>296000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>283000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>364000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>237000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>175000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>213000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-49000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-54000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-66000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>97000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>31000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>29000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E21" s="3">
         <v>232000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>318000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>322000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>288000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>232000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>346000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>317000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>282000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>276000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>347000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>371000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>274000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>210000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>219000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>35000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E23" s="3">
         <v>222000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>308000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>312000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>281000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>225000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>339000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>309000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>271000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>340000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>364000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>268000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>204000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>213000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>15000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>18000</v>
       </c>
       <c r="F24" s="3">
         <v>18000</v>
       </c>
       <c r="G24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H24" s="3">
         <v>20000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>15000</v>
       </c>
       <c r="I24" s="3">
         <v>15000</v>
       </c>
       <c r="J24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E26" s="3">
         <v>207000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>290000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>294000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>261000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>210000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>324000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>290000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>258000</v>
       </c>
       <c r="L26" s="3">
         <v>258000</v>
       </c>
       <c r="M26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="N26" s="3">
         <v>319000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>341000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>247000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>187000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>195000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E27" s="3">
         <v>32000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>46000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>175000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>49000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>54000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>66000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-97000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-31000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E33" s="3">
         <v>32000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E35" s="3">
         <v>32000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3292000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3115000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3101000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2882000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3035000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3162000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2546000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2597000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3062000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1901000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1732000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2056000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2115000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1656000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1925000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32987000</v>
+      </c>
+      <c r="E43" s="3">
         <v>27154000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21740000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32147000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26969000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26770000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26746000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27864000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31876000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30221000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30565000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30760000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26444000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24056000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22387000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20506000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,84 +2647,90 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5848000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7092000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6082000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8943000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7284000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6522000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7103000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6692000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6470000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6209000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6060000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8146000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7364000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6834000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7058000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7777000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E48" s="3">
         <v>110000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>114000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>118000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>122000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>131000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42105000</v>
+      </c>
+      <c r="E52" s="3">
         <v>46134000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44459000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27224000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30040000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29092000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26575000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23098000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20355000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21054000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20268000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20232000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23566000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24187000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24710000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24017000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84698000</v>
+      </c>
+      <c r="E54" s="3">
         <v>83965000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>75849000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>71676000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67804000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66034000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63526000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60547000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62062000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60303000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59093000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61162000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59843000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57597000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56257000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54673000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,167 +3141,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69480000</v>
+      </c>
+      <c r="E57" s="3">
         <v>69360000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63348000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56791000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55041000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53763000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51403000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48615000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50347000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48660000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47928000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48165000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48167000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46777000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44865000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42335000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6366000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5995000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4058000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6335000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3970000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4116000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4265000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4054000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>193000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1331000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>74000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E59" s="3">
         <v>122000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>135000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>153000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>163000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>178000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>177000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83089000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82427000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>74363000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70224000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66399000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64654000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62201000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59265000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60819000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59120000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57961000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60072000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58747000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56548000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55260000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53699000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E72" s="3">
         <v>583000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>558000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>520000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>484000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>456000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>431000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>390000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>354000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>323000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>290000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>251000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>260000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>236000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>220000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>203000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1538000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1486000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1452000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1405000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1380000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1325000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1282000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1243000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1183000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1132000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1090000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1096000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>997000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>974000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E81" s="3">
         <v>32000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="E83" s="3">
         <v>10000</v>
@@ -4239,7 +4438,7 @@
         <v>10000</v>
       </c>
       <c r="G83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="H83" s="3">
         <v>7000</v>
@@ -4248,22 +4447,22 @@
         <v>7000</v>
       </c>
       <c r="J83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7000</v>
       </c>
       <c r="N83" s="3">
         <v>7000</v>
       </c>
       <c r="O83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P83" s="3">
         <v>6000</v>
@@ -4272,13 +4471,16 @@
         <v>6000</v>
       </c>
       <c r="R83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S83" s="3">
         <v>7000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5203000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>488000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>133000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1442000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>603000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-408000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>632000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>931000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1201000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>709000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>807000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>779000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>430000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-12000</v>
       </c>
       <c r="F91" s="3">
         <v>-12000</v>
       </c>
       <c r="G91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-4000</v>
       </c>
       <c r="P94" s="3">
         <v>-4000</v>
       </c>
       <c r="Q94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="R94" s="3">
         <v>-6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,16 +5082,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-8000</v>
       </c>
       <c r="F96" s="3">
         <v>-8000</v>
@@ -4867,19 +5101,19 @@
         <v>-8000</v>
       </c>
       <c r="H96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-7000</v>
       </c>
       <c r="M96" s="3">
         <v>-7000</v>
@@ -4897,13 +5131,16 @@
         <v>-7000</v>
       </c>
       <c r="R96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-63000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-61000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-242000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-46000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-70000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-58000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-222000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-64000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-80000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-133000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-77000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E101" s="3">
         <v>22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-38000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>38000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-28000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-78000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-47000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5091000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>453000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-152000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1392000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>489000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-485000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>399000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>770000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1137000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>577000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>757000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>719000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>375000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E8" s="3">
         <v>566000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>571000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>694000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>628000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>697000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>652000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>623000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>637000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>578000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>565000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>581000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>456000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>409000</v>
       </c>
       <c r="R8" s="3">
         <v>409000</v>
       </c>
       <c r="S8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="T8" s="3">
         <v>215000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>113000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>131000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>177000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>173000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>162000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>119000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>108000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E10" s="3">
         <v>521000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>523000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>581000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>497000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>520000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>479000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>461000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>495000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>459000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>457000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>487000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>422000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>395000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>358000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>374000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>193000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,11 +1105,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E17" s="3">
         <v>259000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>365000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>337000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>319000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>362000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>381000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>325000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>282000</v>
       </c>
       <c r="M17" s="3">
         <v>282000</v>
       </c>
       <c r="N17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="O17" s="3">
         <v>281000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>136000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>219000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>234000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>196000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>187000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E18" s="3">
         <v>307000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>206000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>357000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>309000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>335000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>291000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>242000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>312000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>296000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>283000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>364000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>237000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>175000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>213000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-54000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-66000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>97000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>31000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E21" s="3">
         <v>345000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>232000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>318000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>322000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>288000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>232000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>346000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>317000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>282000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>276000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>347000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>371000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>274000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>210000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>219000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E23" s="3">
         <v>334000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>222000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>308000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>312000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>281000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>225000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>339000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>309000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>271000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>340000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>364000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>268000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>204000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>213000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>18000</v>
       </c>
       <c r="G24" s="3">
         <v>18000</v>
       </c>
       <c r="H24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I24" s="3">
         <v>20000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15000</v>
       </c>
       <c r="J24" s="3">
         <v>15000</v>
       </c>
       <c r="K24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E26" s="3">
         <v>302000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>207000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>290000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>294000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>261000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>210000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>324000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>290000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>258000</v>
       </c>
       <c r="M26" s="3">
         <v>258000</v>
       </c>
       <c r="N26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="O26" s="3">
         <v>319000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>341000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>247000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>187000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>195000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E27" s="3">
         <v>46000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>175000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>54000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>66000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-97000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E33" s="3">
         <v>46000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E35" s="3">
         <v>46000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4292000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3292000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3115000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3101000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2882000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3035000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3162000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2546000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2597000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3062000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1901000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1732000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2056000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2115000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1656000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1925000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40691000</v>
+      </c>
+      <c r="E43" s="3">
         <v>32987000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27154000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21740000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32147000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26969000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26770000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26746000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27864000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31876000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30221000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30565000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30760000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26444000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24056000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22387000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20506000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,31 +2633,34 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>15903000</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>12789000</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>12684000</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>14272000</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>9400000</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>8794000</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>8819000</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,90 +2751,96 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6378000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5848000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7092000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6082000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8943000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7284000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6522000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7103000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6692000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6470000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6209000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6060000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8146000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7364000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6834000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7058000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7777000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E48" s="3">
         <v>107000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>110000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>114000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>118000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>122000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>131000</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
@@ -2744,8 +2851,8 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42105000</v>
+        <v>27821000</v>
       </c>
       <c r="E52" s="3">
-        <v>46134000</v>
+        <v>29316000</v>
       </c>
       <c r="F52" s="3">
-        <v>44459000</v>
+        <v>33450000</v>
       </c>
       <c r="G52" s="3">
-        <v>27224000</v>
+        <v>30187000</v>
       </c>
       <c r="H52" s="3">
-        <v>30040000</v>
+        <v>17824000</v>
       </c>
       <c r="I52" s="3">
-        <v>29092000</v>
+        <v>21246000</v>
       </c>
       <c r="J52" s="3">
+        <v>20273000</v>
+      </c>
+      <c r="K52" s="3">
         <v>26575000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23098000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20355000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21054000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20268000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20232000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23566000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24187000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24710000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24017000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95679000</v>
+      </c>
+      <c r="E54" s="3">
         <v>84698000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83965000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75849000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>71676000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67804000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66034000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63526000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60547000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62062000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60303000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59093000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61162000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59843000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57597000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56257000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54673000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,176 +3271,186 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76441000</v>
+      </c>
+      <c r="E57" s="3">
         <v>69480000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69360000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63348000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56791000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55041000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53763000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51403000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48615000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>50347000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48660000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47928000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48165000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48167000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46777000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44865000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42335000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9956000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6366000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5995000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4058000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6335000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3970000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4116000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4265000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4054000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>193000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1331000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>74000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E59" s="3">
         <v>119000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>122000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>153000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>163000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>178000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>177000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93728000</v>
+      </c>
+      <c r="E66" s="3">
         <v>83089000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82427000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74363000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>70224000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66399000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64654000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62201000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59265000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60819000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59120000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57961000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60072000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58747000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56548000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55260000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53699000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E72" s="3">
         <v>621000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>583000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>558000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>520000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>484000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>456000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>431000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>390000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>354000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>323000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>290000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>251000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>260000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>236000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>220000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>203000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1951000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1609000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1538000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1486000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1452000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1405000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1380000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1325000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1282000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1243000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1183000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1132000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1090000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1096000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1049000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>997000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>974000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E81" s="3">
         <v>46000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,7 +4630,7 @@
         <v>11000</v>
       </c>
       <c r="E83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F83" s="3">
         <v>10000</v>
@@ -4441,7 +4639,7 @@
         <v>10000</v>
       </c>
       <c r="H83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="I83" s="3">
         <v>7000</v>
@@ -4450,22 +4648,22 @@
         <v>7000</v>
       </c>
       <c r="K83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7000</v>
       </c>
       <c r="O83" s="3">
         <v>7000</v>
       </c>
       <c r="P83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q83" s="3">
         <v>6000</v>
@@ -4474,13 +4672,16 @@
         <v>6000</v>
       </c>
       <c r="S83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T83" s="3">
         <v>7000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4596000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-174000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5203000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>488000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>133000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1442000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>603000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-408000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>632000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>931000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1201000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>709000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>807000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>779000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>430000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-12000</v>
       </c>
       <c r="G91" s="3">
         <v>-12000</v>
       </c>
       <c r="H91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-17000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-4000</v>
       </c>
       <c r="Q94" s="3">
         <v>-4000</v>
       </c>
       <c r="R94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,19 +5315,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-8000</v>
       </c>
       <c r="G96" s="3">
         <v>-8000</v>
@@ -5104,19 +5337,19 @@
         <v>-8000</v>
       </c>
       <c r="I96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7000</v>
       </c>
       <c r="N96" s="3">
         <v>-7000</v>
@@ -5134,13 +5367,16 @@
         <v>-7000</v>
       </c>
       <c r="S96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-555000</v>
+      </c>
+      <c r="E100" s="3">
         <v>416000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-63000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-61000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-242000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-46000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-70000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-58000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-222000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-80000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-84000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-77000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E101" s="3">
         <v>45000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>38000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-28000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-78000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>38000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-47000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4114000</v>
+      </c>
+      <c r="E102" s="3">
         <v>282000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5091000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>453000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-152000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1392000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>489000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-485000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>399000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>770000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1137000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>577000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>757000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>719000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>375000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>980000</v>
+      </c>
+      <c r="E8" s="3">
         <v>667000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>566000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>571000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>694000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>628000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>697000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>652000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>623000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>637000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>578000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>565000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>581000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>456000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>409000</v>
       </c>
       <c r="S8" s="3">
         <v>409000</v>
       </c>
       <c r="T8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="U8" s="3">
         <v>215000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E9" s="3">
         <v>55000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>113000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>131000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>173000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>162000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>142000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>119000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>108000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>94000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E10" s="3">
         <v>612000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>521000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>523000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>581000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>497000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>520000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>479000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>461000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>495000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>459000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>457000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>487000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>422000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>395000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>358000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>374000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>193000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,40 +1084,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1108,11 +1128,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E17" s="3">
         <v>262000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>259000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>365000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>337000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>319000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>362000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>381000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>325000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>282000</v>
       </c>
       <c r="N17" s="3">
         <v>282000</v>
       </c>
       <c r="O17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="P17" s="3">
         <v>281000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>136000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>219000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>234000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>196000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>187000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>641000</v>
+      </c>
+      <c r="E18" s="3">
         <v>405000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>307000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>206000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>357000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>309000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>335000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>291000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>242000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>312000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>296000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>283000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>364000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>237000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>175000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>213000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-49000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-54000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-66000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>97000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>31000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E21" s="3">
         <v>403000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>345000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>232000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>318000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>322000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>288000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>232000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>346000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>317000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>282000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>276000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>347000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>371000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>274000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>210000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>219000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E23" s="3">
         <v>392000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>334000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>222000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>308000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>312000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>281000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>225000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>339000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>309000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>276000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>271000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>340000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>364000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>268000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>204000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>213000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>18000</v>
       </c>
       <c r="H24" s="3">
         <v>18000</v>
       </c>
       <c r="I24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J24" s="3">
         <v>20000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15000</v>
       </c>
       <c r="K24" s="3">
         <v>15000</v>
       </c>
       <c r="L24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E26" s="3">
         <v>380000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>302000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>207000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>290000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>294000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>261000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>210000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>324000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>290000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>258000</v>
       </c>
       <c r="N26" s="3">
         <v>258000</v>
       </c>
       <c r="O26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="P26" s="3">
         <v>319000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>341000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>247000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>187000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>195000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E27" s="3">
         <v>71000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>46000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>175000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>24000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>49000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>54000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>66000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-97000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-31000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E33" s="3">
         <v>71000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>24000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E35" s="3">
         <v>71000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>24000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2627000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4292000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3115000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3101000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2882000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3035000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3162000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2546000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2597000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3062000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1901000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1732000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2056000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2115000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1656000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1925000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46129000</v>
+      </c>
+      <c r="E43" s="3">
         <v>40691000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32987000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27154000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21740000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32147000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26969000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26770000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26746000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27864000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31876000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30221000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30565000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30760000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26444000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24056000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22387000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20506000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,35 +2732,38 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21204000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15903000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12789000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12684000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14272000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8794000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8819000</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,96 +2856,102 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8040000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6378000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5848000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7092000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6082000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8943000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7284000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6522000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7103000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6692000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6470000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6209000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6060000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8146000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7364000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6834000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7058000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7777000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E48" s="3">
         <v>101000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>107000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>110000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>118000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>122000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>131000</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
@@ -2854,8 +2962,8 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25069000</v>
+      </c>
+      <c r="E52" s="3">
         <v>27821000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29316000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33450000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30187000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17824000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21246000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20273000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26575000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23098000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20355000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21054000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20268000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20232000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23566000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24187000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24710000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24017000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103764000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95679000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84698000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83965000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75849000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71676000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67804000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66034000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63526000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60547000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62062000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60303000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59093000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61162000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59843000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57597000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56257000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>54673000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,185 +3402,195 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>81928000</v>
+      </c>
+      <c r="E57" s="3">
         <v>76441000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69480000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69360000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63348000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56791000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55041000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53763000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51403000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48615000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50347000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48660000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47928000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48165000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48167000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46777000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44865000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42335000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12079000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9956000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6366000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5995000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4058000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6335000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3970000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4116000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4265000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4054000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>193000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1331000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>74000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E59" s="3">
         <v>126000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>119000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>122000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>153000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>163000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>178000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>177000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>101728000</v>
+      </c>
+      <c r="E66" s="3">
         <v>93728000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83089000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82427000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74363000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>70224000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66399000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64654000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62201000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59265000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60819000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59120000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57961000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60072000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58747000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56548000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55260000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>53699000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>781000</v>
+      </c>
+      <c r="E72" s="3">
         <v>683000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>621000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>583000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>558000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>520000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>484000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>456000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>431000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>390000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>354000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>323000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>290000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>251000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>260000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>236000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>220000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>203000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2036000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1951000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1609000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1538000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1486000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1452000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1405000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1325000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1282000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1243000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1183000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1132000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1090000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1096000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1049000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>997000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>974000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E81" s="3">
         <v>71000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>24000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,19 +4819,20 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="E83" s="3">
         <v>11000</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G83" s="3">
         <v>10000</v>
@@ -4642,7 +4841,7 @@
         <v>10000</v>
       </c>
       <c r="I83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="J83" s="3">
         <v>7000</v>
@@ -4651,22 +4850,22 @@
         <v>7000</v>
       </c>
       <c r="L83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7000</v>
       </c>
       <c r="P83" s="3">
         <v>7000</v>
       </c>
       <c r="Q83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="R83" s="3">
         <v>6000</v>
@@ -4675,13 +4874,16 @@
         <v>6000</v>
       </c>
       <c r="T83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U83" s="3">
         <v>7000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4596000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-174000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5203000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>488000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>133000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1442000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>603000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-408000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>632000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>931000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1201000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>709000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>807000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>779000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>430000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-12000</v>
       </c>
       <c r="H91" s="3">
         <v>-12000</v>
       </c>
       <c r="I91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-17000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-4000</v>
       </c>
       <c r="R94" s="3">
         <v>-4000</v>
       </c>
       <c r="S94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="T94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5325,13 +5559,13 @@
         <v>-9000</v>
       </c>
       <c r="E96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-8000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8000</v>
       </c>
       <c r="H96" s="3">
         <v>-8000</v>
@@ -5340,19 +5574,19 @@
         <v>-8000</v>
       </c>
       <c r="J96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7000</v>
       </c>
       <c r="O96" s="3">
         <v>-7000</v>
@@ -5370,13 +5604,16 @@
         <v>-7000</v>
       </c>
       <c r="T96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-6000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-555000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>416000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-63000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-61000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-242000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-46000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-70000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-222000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-64000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-133000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-84000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-77000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E101" s="3">
         <v>95000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>45000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-38000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>38000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-28000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>38000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-47000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3636000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4114000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>282000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5091000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>453000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-152000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1392000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>489000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-485000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>399000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>770000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1137000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>577000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>757000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>719000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>375000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>980000</v>
+        <v>787000</v>
       </c>
       <c r="E8" s="3">
-        <v>667000</v>
+        <v>978000</v>
       </c>
       <c r="F8" s="3">
-        <v>566000</v>
+        <v>654000</v>
       </c>
       <c r="G8" s="3">
-        <v>571000</v>
+        <v>593000</v>
       </c>
       <c r="H8" s="3">
-        <v>694000</v>
+        <v>587000</v>
       </c>
       <c r="I8" s="3">
-        <v>628000</v>
+        <v>645000</v>
       </c>
       <c r="J8" s="3">
+        <v>640000</v>
+      </c>
+      <c r="K8" s="3">
         <v>697000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>652000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>623000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>637000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>578000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>565000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>581000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>456000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>409000</v>
       </c>
       <c r="T8" s="3">
         <v>409000</v>
       </c>
       <c r="U8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="V8" s="3">
         <v>215000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E9" s="3">
         <v>85000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>113000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>162000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>142000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>108000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>94000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>895000</v>
+        <v>754000</v>
       </c>
       <c r="E10" s="3">
-        <v>612000</v>
+        <v>893000</v>
       </c>
       <c r="F10" s="3">
-        <v>521000</v>
+        <v>599000</v>
       </c>
       <c r="G10" s="3">
-        <v>523000</v>
+        <v>548000</v>
       </c>
       <c r="H10" s="3">
-        <v>581000</v>
+        <v>539000</v>
       </c>
       <c r="I10" s="3">
-        <v>497000</v>
+        <v>532000</v>
       </c>
       <c r="J10" s="3">
+        <v>509000</v>
+      </c>
+      <c r="K10" s="3">
         <v>520000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>479000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>461000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>495000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>459000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>457000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>487000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>422000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>395000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>358000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>374000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>193000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,17 +1132,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,11 +1150,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1168,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E17" s="3">
         <v>339000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>262000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>259000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>365000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>337000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>319000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>362000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>381000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>325000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>282000</v>
       </c>
       <c r="O17" s="3">
         <v>282000</v>
       </c>
       <c r="P17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>281000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>136000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>234000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>196000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>187000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>641000</v>
+        <v>541000</v>
       </c>
       <c r="E18" s="3">
-        <v>405000</v>
+        <v>639000</v>
       </c>
       <c r="F18" s="3">
-        <v>307000</v>
+        <v>392000</v>
       </c>
       <c r="G18" s="3">
-        <v>206000</v>
+        <v>334000</v>
       </c>
       <c r="H18" s="3">
-        <v>357000</v>
+        <v>222000</v>
       </c>
       <c r="I18" s="3">
-        <v>309000</v>
+        <v>308000</v>
       </c>
       <c r="J18" s="3">
+        <v>321000</v>
+      </c>
+      <c r="K18" s="3">
         <v>335000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>291000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>242000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>312000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>296000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>283000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>364000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>237000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>175000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>213000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>28000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1412,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-49000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-54000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-66000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>97000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>29000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>553000</v>
+      </c>
+      <c r="E21" s="3">
         <v>652000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>403000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>345000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>232000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>318000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>322000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>288000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>232000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>346000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>317000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>282000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>276000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>347000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>371000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>274000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>210000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>219000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1605,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E23" s="3">
         <v>639000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>392000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>334000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>222000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>308000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>312000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>281000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>225000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>339000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>309000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>276000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>271000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>340000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>364000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>268000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>204000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>213000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="3">
         <v>53000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>18000</v>
       </c>
       <c r="I24" s="3">
         <v>18000</v>
       </c>
       <c r="J24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K24" s="3">
         <v>20000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>15000</v>
       </c>
       <c r="L24" s="3">
         <v>15000</v>
       </c>
       <c r="M24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E26" s="3">
         <v>586000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>380000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>302000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>207000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>290000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>294000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>261000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>324000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>290000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>258000</v>
       </c>
       <c r="O26" s="3">
         <v>258000</v>
       </c>
       <c r="P26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="Q26" s="3">
         <v>319000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>341000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>247000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>187000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>195000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E27" s="3">
         <v>107000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>49000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>175000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>24000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2024,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2042,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-16000</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>54000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>66000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-97000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-29000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E33" s="3">
         <v>107000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>71000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>24000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E35" s="3">
         <v>107000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>71000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>24000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3218000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2627000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3292000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3115000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3101000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2882000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3035000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3162000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2546000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2597000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3062000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1732000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2056000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2115000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1656000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1925000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2700,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54045000</v>
+      </c>
+      <c r="E43" s="3">
         <v>46129000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40691000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32987000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27154000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21740000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32147000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26969000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26770000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26746000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27864000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31876000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30221000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30565000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30760000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26444000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24056000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22387000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20506000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,38 +2830,41 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22099000</v>
+      </c>
+      <c r="E45" s="3">
         <v>21204000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15903000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12789000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12684000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14272000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9400000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8794000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8819000</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2797,8 +2895,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,102 +2960,108 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8522000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8040000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6378000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5848000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7092000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6082000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8943000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7284000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6522000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7103000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6692000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6470000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6209000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6060000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8146000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7364000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6834000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7058000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7777000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E48" s="3">
         <v>98000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>107000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>114000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>118000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>127000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>131000</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
@@ -2965,8 +3072,8 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2983,8 +3090,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15635000</v>
+      </c>
+      <c r="E52" s="3">
         <v>25069000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27821000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29316000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33450000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30187000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17824000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21246000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20273000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26575000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23098000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20355000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21054000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20268000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20232000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23566000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24187000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24710000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24017000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104331000</v>
+      </c>
+      <c r="E54" s="3">
         <v>103764000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95679000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84698000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83965000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75849000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>71676000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67804000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66034000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63526000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60547000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>62062000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60303000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59093000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61162000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59843000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57597000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56257000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>54673000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,194 +3532,204 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>82082000</v>
+      </c>
+      <c r="E57" s="3">
         <v>81928000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76441000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69480000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69360000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63348000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56791000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55041000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53763000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51403000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48615000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>50347000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48660000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47928000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48165000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48167000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46777000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>44865000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42335000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12005000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12079000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9956000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6366000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5995000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4058000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6335000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3970000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4116000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4265000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4054000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>193000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1331000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>74000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E59" s="3">
         <v>129000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>126000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>119000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>122000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>135000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>153000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>163000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>177000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3790,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3855,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3920,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102181000</v>
+      </c>
+      <c r="E66" s="3">
         <v>101728000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93728000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83089000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82427000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74363000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70224000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66399000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64654000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62201000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59265000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60819000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59120000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57961000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60072000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58747000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56548000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55260000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>53699000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E72" s="3">
         <v>781000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>683000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>621000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>583000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>558000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>520000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>484000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>456000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>431000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>390000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>354000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>323000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>290000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>251000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>260000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>236000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>220000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>203000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2150000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2036000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1951000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1609000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1538000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1486000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1452000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1405000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1380000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1325000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1282000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1243000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1183000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1132000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1090000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1096000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1049000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>997000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>974000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E81" s="3">
         <v>107000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>71000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>24000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,22 +5017,23 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>11000</v>
       </c>
       <c r="F83" s="3">
         <v>11000</v>
       </c>
       <c r="G83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="H83" s="3">
         <v>10000</v>
@@ -4844,7 +5042,7 @@
         <v>10000</v>
       </c>
       <c r="J83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="K83" s="3">
         <v>7000</v>
@@ -4853,22 +5051,22 @@
         <v>7000</v>
       </c>
       <c r="M83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7000</v>
       </c>
       <c r="Q83" s="3">
         <v>7000</v>
       </c>
       <c r="R83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="S83" s="3">
         <v>6000</v>
@@ -4877,13 +5075,16 @@
         <v>6000</v>
       </c>
       <c r="U83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V83" s="3">
         <v>7000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3734000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4596000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-174000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5203000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>488000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>133000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1442000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>603000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-408000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>632000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>931000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1201000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>709000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>807000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>779000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>430000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-12000</v>
       </c>
       <c r="I91" s="3">
         <v>-12000</v>
       </c>
       <c r="J91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-4000</v>
       </c>
       <c r="S94" s="3">
         <v>-4000</v>
       </c>
       <c r="T94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U94" s="3">
         <v>-6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5562,13 +5795,13 @@
         <v>-9000</v>
       </c>
       <c r="F96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-8000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8000</v>
       </c>
       <c r="I96" s="3">
         <v>-8000</v>
@@ -5577,19 +5810,19 @@
         <v>-8000</v>
       </c>
       <c r="K96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-7000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7000</v>
       </c>
       <c r="P96" s="3">
         <v>-7000</v>
@@ -5607,13 +5840,16 @@
         <v>-7000</v>
       </c>
       <c r="U96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-555000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>416000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-63000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-61000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-242000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-70000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-222000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-80000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-133000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-84000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-77000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-76000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>95000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>45000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-38000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>38000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-78000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>38000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-47000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1486000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3636000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4114000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>282000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5091000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>453000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-152000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1392000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>489000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-485000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>399000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>770000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>577000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>757000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>719000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>375000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E8" s="3">
         <v>787000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>978000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>654000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>593000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>587000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>645000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>640000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>697000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>652000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>623000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>637000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>578000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>565000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>581000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>456000</v>
-      </c>
-      <c r="T8" s="3">
-        <v>409000</v>
       </c>
       <c r="U8" s="3">
         <v>409000</v>
       </c>
       <c r="V8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="W8" s="3">
         <v>215000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E9" s="3">
         <v>33000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>85000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>55000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>113000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>173000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>162000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>142000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>108000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>94000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>35000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E10" s="3">
         <v>754000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>893000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>599000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>548000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>539000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>532000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>509000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>520000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>479000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>461000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>495000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>459000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>457000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>487000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>422000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>395000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>358000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>374000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>193000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,17 +1154,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1153,11 +1172,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1171,8 +1190,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E17" s="3">
         <v>246000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>339000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>262000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>259000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>365000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>337000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>319000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>362000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>381000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>325000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>282000</v>
       </c>
       <c r="P17" s="3">
         <v>282000</v>
       </c>
       <c r="Q17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="R17" s="3">
         <v>281000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>136000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>219000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>234000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>196000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>187000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E18" s="3">
         <v>541000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>639000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>392000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>334000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>222000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>308000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>321000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>335000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>291000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>242000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>312000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>296000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>283000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>364000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>237000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>175000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>213000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1445,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1437,114 +1470,120 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-66000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>97000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>40000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>31000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>29000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E21" s="3">
         <v>553000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>652000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>403000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>345000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>232000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>318000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>322000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>288000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>232000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>346000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>317000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>282000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>276000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>347000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>371000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>274000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>210000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>219000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>35000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,138 +1647,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E23" s="3">
         <v>541000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>639000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>392000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>334000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>222000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>308000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>312000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>281000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>225000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>339000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>309000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>276000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>271000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>340000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>364000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>268000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>204000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>213000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>28000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>35000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>18000</v>
       </c>
       <c r="J24" s="3">
         <v>18000</v>
       </c>
       <c r="K24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="L24" s="3">
         <v>20000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>15000</v>
       </c>
       <c r="M24" s="3">
         <v>15000</v>
       </c>
       <c r="N24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E26" s="3">
         <v>506000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>586000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>380000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>302000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>207000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>290000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>294000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>261000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>210000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>324000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>290000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>258000</v>
       </c>
       <c r="P26" s="3">
         <v>258000</v>
       </c>
       <c r="Q26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="R26" s="3">
         <v>319000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>341000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>247000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>187000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>195000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E27" s="3">
         <v>92000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>107000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>49000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>175000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,17 +2087,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2045,11 +2105,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2259,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2217,114 +2286,120 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>66000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-97000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-40000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-31000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-29000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E33" s="3">
         <v>92000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>107000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E35" s="3">
         <v>92000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>107000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2838000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3218000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2627000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4292000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3292000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3115000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3101000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2882000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3035000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3162000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2546000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2597000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3062000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1901000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1732000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2056000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2115000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1656000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1925000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,73 +2792,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54654000</v>
+      </c>
+      <c r="E43" s="3">
         <v>54045000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46129000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40691000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32987000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27154000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21740000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32147000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26969000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26770000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26746000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27864000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>31876000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30221000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30565000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30760000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26444000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24056000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22387000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20506000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,41 +2928,44 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23125000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22099000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21204000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15903000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12789000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12684000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14272000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9400000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8794000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8819000</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2898,8 +2996,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2963,108 +3064,114 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10578000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8522000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8040000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6378000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5848000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7092000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6082000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8943000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7284000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6522000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7103000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6692000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6470000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6209000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6060000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8146000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7364000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6834000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7058000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7777000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E48" s="3">
         <v>96000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>98000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>118000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>127000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>131000</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
@@ -3075,8 +3182,8 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3093,8 +3200,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3268,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14400000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15635000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25069000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27821000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29316000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33450000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30187000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17824000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21246000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20273000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26575000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23098000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20355000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21054000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20268000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20232000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23566000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24187000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24710000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>24017000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106282000</v>
+      </c>
+      <c r="E54" s="3">
         <v>104331000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103764000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95679000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84698000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83965000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75849000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>71676000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67804000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66034000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63526000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60547000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62062000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60303000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59093000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61162000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59843000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57597000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56257000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54673000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,203 +3662,213 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>85345000</v>
+      </c>
+      <c r="E57" s="3">
         <v>82082000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>81928000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76441000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69480000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69360000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63348000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56791000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55041000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53763000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51403000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48615000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>50347000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48660000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47928000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48165000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48167000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46777000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>44865000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42335000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10563000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12005000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12079000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9956000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6366000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5995000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4058000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6335000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3970000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4116000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4265000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4054000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>193000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1331000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>74000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E59" s="3">
         <v>125000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>126000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>119000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>122000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>135000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>153000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>163000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>177000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3793,8 +3932,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3858,8 +4000,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3923,8 +4068,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103951000</v>
+      </c>
+      <c r="E66" s="3">
         <v>102181000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>101728000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>93728000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83089000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82427000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74363000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70224000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66399000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64654000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62201000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59265000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60819000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59120000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57961000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60072000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58747000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56548000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55260000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>53699000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E72" s="3">
         <v>864000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>781000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>683000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>621000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>583000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>558000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>520000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>484000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>456000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>431000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>390000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>354000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>323000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>290000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>251000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>260000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>236000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>220000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>203000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2331000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2150000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2036000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1951000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1609000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1538000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1486000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1452000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1405000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1380000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1325000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1282000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1243000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1183000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1132000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1090000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1096000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1049000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>997000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>974000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E81" s="3">
         <v>92000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>107000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5215,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5027,16 +5225,16 @@
         <v>12000</v>
       </c>
       <c r="E83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F83" s="3">
         <v>13000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>11000</v>
       </c>
       <c r="G83" s="3">
         <v>11000</v>
       </c>
       <c r="H83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="I83" s="3">
         <v>10000</v>
@@ -5045,7 +5243,7 @@
         <v>10000</v>
       </c>
       <c r="K83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L83" s="3">
         <v>7000</v>
@@ -5054,22 +5252,22 @@
         <v>7000</v>
       </c>
       <c r="N83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7000</v>
       </c>
       <c r="R83" s="3">
         <v>7000</v>
       </c>
       <c r="S83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="T83" s="3">
         <v>6000</v>
@@ -5078,13 +5276,16 @@
         <v>6000</v>
       </c>
       <c r="V83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W83" s="3">
         <v>7000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1324000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3734000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4596000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-174000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5203000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>488000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>133000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1442000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>603000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-408000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>632000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>931000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1201000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>709000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>807000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>779000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>430000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-12000</v>
       </c>
       <c r="J91" s="3">
         <v>-12000</v>
       </c>
       <c r="K91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-17000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-4000</v>
       </c>
       <c r="T94" s="3">
         <v>-4000</v>
       </c>
       <c r="U94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="V94" s="3">
         <v>-6000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,13 +6015,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="E96" s="3">
         <v>-9000</v>
@@ -5798,13 +6031,13 @@
         <v>-9000</v>
       </c>
       <c r="G96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-8000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8000</v>
       </c>
       <c r="J96" s="3">
         <v>-8000</v>
@@ -5813,19 +6046,19 @@
         <v>-8000</v>
       </c>
       <c r="L96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-7000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-7000</v>
       </c>
       <c r="Q96" s="3">
         <v>-7000</v>
@@ -5843,13 +6076,16 @@
         <v>-7000</v>
       </c>
       <c r="V96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-6000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-506000</v>
+      </c>
+      <c r="E100" s="3">
         <v>158000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-555000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>416000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-63000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-61000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-242000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-70000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-58000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-222000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-64000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-80000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-133000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-84000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-77000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E101" s="3">
         <v>21000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-76000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>95000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>45000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-38000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>38000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>38000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>23000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-47000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1486000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3636000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4114000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>282000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5091000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>453000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-152000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1392000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>489000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-485000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>399000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>770000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1137000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>577000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>757000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>719000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>375000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E8" s="3">
         <v>515000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>787000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>978000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>654000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>593000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>587000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>645000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>640000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>697000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>652000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>623000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>637000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>578000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>565000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>581000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>456000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>409000</v>
       </c>
       <c r="V8" s="3">
         <v>409000</v>
       </c>
       <c r="W8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="X8" s="3">
         <v>215000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>87000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>153000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>121000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>119000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>113000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>131000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>177000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>173000</v>
+      </c>
+      <c r="O9" s="3">
+        <v>162000</v>
+      </c>
+      <c r="P9" s="3">
+        <v>142000</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>119000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>108000</v>
+      </c>
+      <c r="S9" s="3">
+        <v>94000</v>
+      </c>
+      <c r="T9" s="3">
+        <v>78000</v>
+      </c>
+      <c r="U9" s="3">
+        <v>61000</v>
+      </c>
+      <c r="V9" s="3">
         <v>51000</v>
       </c>
-      <c r="E9" s="3">
-        <v>33000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>45000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>48000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>113000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>131000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>177000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>173000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>162000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>142000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>119000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>108000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>94000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>78000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>61000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>51000</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>35000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>22000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>464000</v>
+        <v>550000</v>
       </c>
       <c r="E10" s="3">
-        <v>754000</v>
+        <v>403000</v>
       </c>
       <c r="F10" s="3">
-        <v>893000</v>
+        <v>700000</v>
       </c>
       <c r="G10" s="3">
-        <v>599000</v>
+        <v>825000</v>
       </c>
       <c r="H10" s="3">
-        <v>548000</v>
+        <v>533000</v>
       </c>
       <c r="I10" s="3">
-        <v>539000</v>
+        <v>474000</v>
       </c>
       <c r="J10" s="3">
+        <v>463000</v>
+      </c>
+      <c r="K10" s="3">
         <v>532000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>509000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>520000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>479000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>461000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>495000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>459000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>457000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>487000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>422000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>395000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>358000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>374000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>193000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1070,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1141,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,17 +1176,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1175,11 +1194,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1193,8 +1212,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E17" s="3">
         <v>281000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>246000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>339000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>262000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>259000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>365000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>337000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>319000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>362000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>361000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>381000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>325000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>282000</v>
       </c>
       <c r="Q17" s="3">
         <v>282000</v>
       </c>
       <c r="R17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="S17" s="3">
         <v>281000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>136000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>219000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>234000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>196000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>187000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E18" s="3">
         <v>234000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>541000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>639000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>392000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>334000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>222000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>308000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>321000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>335000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>291000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>242000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>312000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>296000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>283000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>364000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>237000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>175000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>213000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,8 +1478,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1473,117 +1506,123 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-66000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>97000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>31000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>29000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E21" s="3">
         <v>246000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>553000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>652000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>403000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>345000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>232000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>318000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>322000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>288000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>232000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>346000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>317000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>282000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>276000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>347000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>371000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>274000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>210000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>219000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>35000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,144 +1689,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E23" s="3">
         <v>234000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>541000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>639000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>392000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>334000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>222000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>308000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>312000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>225000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>339000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>309000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>276000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>271000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>340000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>364000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>268000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>204000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>213000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>28000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>53000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>18000</v>
       </c>
       <c r="K24" s="3">
         <v>18000</v>
       </c>
       <c r="L24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M24" s="3">
         <v>20000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>15000</v>
       </c>
       <c r="N24" s="3">
         <v>15000</v>
       </c>
       <c r="O24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E26" s="3">
         <v>206000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>506000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>586000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>380000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>302000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>207000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>290000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>294000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>261000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>210000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>324000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>290000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>258000</v>
       </c>
       <c r="Q26" s="3">
         <v>258000</v>
       </c>
       <c r="R26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="S26" s="3">
         <v>319000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>341000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>247000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>187000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>195000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E27" s="3">
         <v>42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>92000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>107000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>71000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>175000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,17 +2150,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2108,11 +2168,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2126,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,8 +2328,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2289,117 +2358,123 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>66000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-97000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-31000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-29000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E33" s="3">
         <v>42000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>92000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>107000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>46000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E35" s="3">
         <v>42000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>92000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>107000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>46000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2744,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2395000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2838000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3218000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2627000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4292000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3292000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3115000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3101000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2882000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3035000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3162000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2546000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2597000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3062000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1901000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1732000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2056000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2115000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1656000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1925000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,76 +2884,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58833000</v>
+      </c>
+      <c r="E43" s="3">
         <v>54654000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54045000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46129000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40691000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32987000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27154000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21740000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32147000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26969000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26770000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26746000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27864000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31876000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30221000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30565000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30760000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26444000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24056000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22387000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20506000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,44 +3026,47 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22888000</v>
+      </c>
+      <c r="E45" s="3">
         <v>23125000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22099000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21204000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15903000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12789000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12684000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14272000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8794000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8819000</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2999,8 +3097,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3067,114 +3168,120 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8965000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10578000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8522000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8040000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6378000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5848000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7092000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6082000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8943000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7284000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6522000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7103000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6692000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6470000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6209000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6060000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8146000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7364000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6834000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7058000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7777000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E48" s="3">
         <v>100000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>96000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>98000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>127000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>131000</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
@@ -3185,8 +3292,8 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3203,8 +3310,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,8 +3381,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15121000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14400000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15635000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25069000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27821000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29316000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33450000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30187000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17824000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21246000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20273000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26575000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23098000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20355000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21054000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20268000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20232000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23566000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24187000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>24710000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>24017000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109113000</v>
+      </c>
+      <c r="E54" s="3">
         <v>106282000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>104331000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103764000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95679000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84698000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83965000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75849000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71676000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67804000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66034000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63526000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60547000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62062000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60303000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59093000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61162000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59843000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57597000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56257000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54673000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,212 +3792,222 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>86782000</v>
+      </c>
+      <c r="E57" s="3">
         <v>85345000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82082000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>81928000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76441000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69480000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69360000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63348000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56791000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55041000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53763000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51403000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48615000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>50347000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48660000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47928000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48165000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48167000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46777000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>44865000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42335000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11796000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10563000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12005000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12079000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9956000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6366000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5995000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4058000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6335000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3970000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4116000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4265000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4054000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>193000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1331000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>74000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E59" s="3">
         <v>130000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>125000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>126000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>119000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>122000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>163000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>178000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>177000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3935,8 +4074,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4003,8 +4145,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4071,8 +4216,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106718000</v>
+      </c>
+      <c r="E66" s="3">
         <v>103951000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102181000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>101728000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>93728000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83089000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82427000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74363000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70224000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66399000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64654000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62201000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59265000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60819000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59120000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57961000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60072000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58747000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56548000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55260000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>53699000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>953000</v>
+      </c>
+      <c r="E72" s="3">
         <v>896000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>864000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>781000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>683000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>621000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>583000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>558000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>520000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>484000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>456000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>431000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>390000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>354000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>323000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>290000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>251000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>260000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>236000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>220000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>203000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2395000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2331000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2150000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2036000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1951000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1609000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1538000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1486000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1452000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1405000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1380000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1325000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1282000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1243000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1183000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1132000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1090000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1096000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1049000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>997000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>974000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E81" s="3">
         <v>42000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>92000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>107000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>46000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,28 +5413,29 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E83" s="3">
         <v>12000</v>
       </c>
       <c r="F83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G83" s="3">
         <v>13000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>11000</v>
       </c>
       <c r="H83" s="3">
         <v>11000</v>
       </c>
       <c r="I83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="J83" s="3">
         <v>10000</v>
@@ -5246,7 +5444,7 @@
         <v>10000</v>
       </c>
       <c r="L83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M83" s="3">
         <v>7000</v>
@@ -5255,22 +5453,22 @@
         <v>7000</v>
       </c>
       <c r="O83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7000</v>
       </c>
       <c r="S83" s="3">
         <v>7000</v>
       </c>
       <c r="T83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="U83" s="3">
         <v>6000</v>
@@ -5279,13 +5477,16 @@
         <v>6000</v>
       </c>
       <c r="W83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X83" s="3">
         <v>7000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1213000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1324000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3734000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4596000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-174000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5203000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>488000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>133000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1442000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>603000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-408000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>632000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>931000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1201000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>709000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>807000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>779000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>430000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-12000</v>
       </c>
       <c r="K91" s="3">
         <v>-12000</v>
       </c>
       <c r="L91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-17000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-4000</v>
       </c>
       <c r="U94" s="3">
         <v>-4000</v>
       </c>
       <c r="V94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="W94" s="3">
         <v>-6000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6025,7 +6258,7 @@
         <v>-10000</v>
       </c>
       <c r="E96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="F96" s="3">
         <v>-9000</v>
@@ -6034,13 +6267,13 @@
         <v>-9000</v>
       </c>
       <c r="H96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-8000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8000</v>
       </c>
       <c r="K96" s="3">
         <v>-8000</v>
@@ -6049,19 +6282,19 @@
         <v>-8000</v>
       </c>
       <c r="M96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-7000</v>
       </c>
       <c r="R96" s="3">
         <v>-7000</v>
@@ -6079,13 +6312,16 @@
         <v>-7000</v>
       </c>
       <c r="W96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-6000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-506000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>158000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-555000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>416000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-63000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-61000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-242000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-46000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-70000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-58000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-222000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-64000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-80000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-133000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-84000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-77000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-40000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>21000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-76000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>95000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>45000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-38000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>38000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-78000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>38000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>23000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-47000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="E102" s="3">
         <v>646000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1486000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3636000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4114000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>282000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5091000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>453000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-152000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1392000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>489000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-485000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>399000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>770000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1137000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>577000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>757000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>719000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>375000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,330 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>695000</v>
+      </c>
+      <c r="E8" s="3">
         <v>658000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>515000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>787000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>978000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>654000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>593000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>587000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>645000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>640000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>697000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>652000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>623000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>637000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>578000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>565000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>581000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>456000</v>
-      </c>
-      <c r="V8" s="3">
-        <v>409000</v>
       </c>
       <c r="W8" s="3">
         <v>409000</v>
       </c>
       <c r="X8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="Y8" s="3">
         <v>215000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E9" s="3">
         <v>108000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>87000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>153000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>121000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>119000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>131000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>177000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>173000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>162000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>142000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>119000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>108000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>94000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>78000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>51000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>35000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>22000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E10" s="3">
         <v>550000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>403000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>825000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>533000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>474000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>463000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>532000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>509000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>520000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>479000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>461000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>495000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>459000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>457000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>487000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>422000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>395000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>358000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>374000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>193000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,8 +1160,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,17 +1198,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1197,11 +1216,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1215,8 +1234,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1308,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E17" s="3">
         <v>285000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>281000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>246000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>339000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>262000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>259000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>365000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>337000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>319000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>362000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>381000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>325000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>282000</v>
       </c>
       <c r="R17" s="3">
         <v>282000</v>
       </c>
       <c r="S17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="T17" s="3">
         <v>281000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>136000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>219000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>234000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>196000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>187000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E18" s="3">
         <v>373000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>234000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>541000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>639000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>392000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>334000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>222000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>308000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>321000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>335000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>291000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>242000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>312000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>296000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>283000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>364000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>237000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>175000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>213000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>28000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,8 +1511,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1509,120 +1542,126 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-66000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>97000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>31000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>29000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E21" s="3">
         <v>386000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>246000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>553000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>652000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>403000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>345000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>232000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>318000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>322000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>288000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>232000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>346000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>317000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>282000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>276000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>347000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>371000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>274000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>210000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>219000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>35000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1692,150 +1731,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E23" s="3">
         <v>373000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>234000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>541000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>639000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>392000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>334000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>222000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>308000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>312000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>281000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>225000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>339000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>309000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>276000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>271000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>340000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>364000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>268000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>204000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>213000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>28000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>35000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>18000</v>
       </c>
       <c r="L24" s="3">
         <v>18000</v>
       </c>
       <c r="M24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N24" s="3">
         <v>20000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>15000</v>
       </c>
       <c r="O24" s="3">
         <v>15000</v>
       </c>
       <c r="P24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E26" s="3">
         <v>338000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>206000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>506000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>586000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>380000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>302000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>207000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>290000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>294000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>261000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>210000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>324000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>290000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>258000</v>
       </c>
       <c r="R26" s="3">
         <v>258000</v>
       </c>
       <c r="S26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="T26" s="3">
         <v>319000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>341000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>247000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>187000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>195000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E27" s="3">
         <v>67000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>92000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>107000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>175000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>24000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2175,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,17 +2213,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2171,11 +2231,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2189,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,8 +2397,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2361,120 +2430,126 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>66000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-97000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-31000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-29000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E33" s="3">
         <v>67000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>92000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>107000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>46000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>24000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E35" s="3">
         <v>67000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>92000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>107000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>46000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>24000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,79 +2830,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2667000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2395000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2838000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3218000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2627000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4292000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3292000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3115000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3101000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2882000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3035000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3162000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2546000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2597000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3062000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1901000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1732000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2056000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2115000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1656000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1925000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2887,79 +2976,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50612000</v>
+      </c>
+      <c r="E43" s="3">
         <v>58833000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54654000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54045000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46129000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40691000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32987000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27154000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21740000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32147000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26969000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26770000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26746000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27864000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31876000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30221000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30565000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30760000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>26444000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24056000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22387000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20506000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3029,47 +3124,50 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24581000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22888000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23125000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22099000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21204000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15903000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12789000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12684000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14272000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8794000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8819000</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3100,8 +3198,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3171,120 +3272,126 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11290000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8965000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10578000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8522000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8040000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6378000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5848000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7092000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6082000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8943000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7284000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6522000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7103000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6692000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6470000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6209000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6060000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8146000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7364000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6834000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7058000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7777000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E48" s="3">
         <v>101000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>96000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>98000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>107000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>110000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>118000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>127000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>131000</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -3295,8 +3402,8 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3313,8 +3420,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3384,8 +3494,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24350000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15121000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14400000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15635000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25069000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27821000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29316000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33450000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30187000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17824000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21246000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20273000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26575000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23098000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20355000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21054000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20268000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20232000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>23566000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>24187000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>24710000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>24017000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114423000</v>
+      </c>
+      <c r="E54" s="3">
         <v>109113000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106282000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>104331000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103764000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95679000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84698000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83965000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75849000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71676000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67804000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66034000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63526000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60547000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>62062000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60303000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59093000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61162000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>59843000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57597000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56257000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>54673000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,221 +3922,231 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>91923000</v>
+      </c>
+      <c r="E57" s="3">
         <v>86782000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>85345000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>82082000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>81928000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76441000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69480000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69360000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63348000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56791000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55041000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53763000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51403000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48615000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>50347000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48660000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47928000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48165000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48167000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46777000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>44865000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42335000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11690000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11796000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10563000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12005000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12079000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9956000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6366000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5995000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4058000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6335000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3970000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4116000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4265000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4054000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>193000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1331000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>38000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>74000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E59" s="3">
         <v>131000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>125000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>129000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>126000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>119000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>122000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>153000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>163000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>178000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>177000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4077,8 +4216,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4148,8 +4290,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4219,8 +4364,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111967000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106718000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>103951000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102181000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>101728000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93728000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83089000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82427000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74363000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70224000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66399000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64654000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62201000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59265000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60819000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59120000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57961000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60072000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>58747000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56548000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>55260000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>53699000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E72" s="3">
         <v>953000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>896000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>864000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>781000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>683000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>621000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>583000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>558000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>520000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>484000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>456000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>431000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>390000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>354000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>323000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>290000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>251000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>260000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>236000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>220000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>203000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2456000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2395000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2331000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2150000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2036000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1951000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1609000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1538000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1486000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1452000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1405000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1380000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1325000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1282000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1243000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1183000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1132000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1090000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1096000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1049000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>997000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>974000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E81" s="3">
         <v>67000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>92000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>107000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>46000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>24000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,31 +5611,32 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>12000</v>
       </c>
       <c r="F83" s="3">
         <v>12000</v>
       </c>
       <c r="G83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H83" s="3">
         <v>13000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>11000</v>
       </c>
       <c r="I83" s="3">
         <v>11000</v>
       </c>
       <c r="J83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="K83" s="3">
         <v>10000</v>
@@ -5447,7 +5645,7 @@
         <v>10000</v>
       </c>
       <c r="M83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N83" s="3">
         <v>7000</v>
@@ -5456,22 +5654,22 @@
         <v>7000</v>
       </c>
       <c r="P83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>7000</v>
       </c>
       <c r="T83" s="3">
         <v>7000</v>
       </c>
       <c r="U83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="V83" s="3">
         <v>6000</v>
@@ -5480,13 +5678,16 @@
         <v>6000</v>
       </c>
       <c r="X83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>7000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-375000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1213000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1324000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3734000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4596000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-174000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5203000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>488000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>133000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1442000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>603000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-408000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>632000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>931000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1201000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>709000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>807000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>779000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>430000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-12000</v>
       </c>
       <c r="L91" s="3">
         <v>-12000</v>
       </c>
       <c r="M91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-17000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-129000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-4000</v>
       </c>
       <c r="V94" s="3">
         <v>-4000</v>
       </c>
       <c r="W94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="X94" s="3">
         <v>-6000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,19 +6481,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10000</v>
+        <v>-9000</v>
       </c>
       <c r="E96" s="3">
         <v>-10000</v>
       </c>
       <c r="F96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="G96" s="3">
         <v>-9000</v>
@@ -6270,13 +6503,13 @@
         <v>-9000</v>
       </c>
       <c r="I96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-8000</v>
       </c>
       <c r="L96" s="3">
         <v>-8000</v>
@@ -6285,19 +6518,19 @@
         <v>-8000</v>
       </c>
       <c r="N96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-7000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-7000</v>
       </c>
       <c r="S96" s="3">
         <v>-7000</v>
@@ -6315,13 +6548,16 @@
         <v>-7000</v>
       </c>
       <c r="X96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,217 +6775,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-174000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-506000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>158000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-555000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>416000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-61000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-242000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-222000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-64000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-80000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-133000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-84000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-77000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>9000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-40000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-76000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>95000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>45000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>38000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-78000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>38000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>23000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-47000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-680000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>646000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1486000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3636000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4114000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>282000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5091000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>453000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-152000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1392000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>489000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-485000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>399000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>770000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1137000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>577000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>757000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>719000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>375000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,342 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>768000</v>
+      </c>
+      <c r="E8" s="3">
         <v>695000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>658000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>515000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>787000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>978000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>654000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>593000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>587000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>645000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>640000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>697000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>652000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>623000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>637000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>578000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>565000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>581000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>456000</v>
-      </c>
-      <c r="W8" s="3">
-        <v>409000</v>
       </c>
       <c r="X8" s="3">
         <v>409000</v>
       </c>
       <c r="Y8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="Z8" s="3">
         <v>215000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E9" s="3">
         <v>121000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>108000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>153000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>121000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>119000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>113000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>131000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>177000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>173000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>162000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>142000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>119000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>108000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>94000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>61000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>51000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>35000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>22000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E10" s="3">
         <v>574000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>550000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>403000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>825000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>533000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>474000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>463000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>532000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>509000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>520000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>479000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>461000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>495000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>459000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>457000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>487000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>422000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>395000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>358000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>374000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>193000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,8 +1102,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,8 +1179,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,17 +1220,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1219,11 +1238,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1237,8 +1256,11 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1311,8 +1333,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E17" s="3">
         <v>301000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>285000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>281000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>246000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>339000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>262000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>259000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>365000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>337000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>319000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>362000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>361000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>381000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>325000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>282000</v>
       </c>
       <c r="S17" s="3">
         <v>282000</v>
       </c>
       <c r="T17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="U17" s="3">
         <v>281000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>136000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>234000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>196000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>187000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E18" s="3">
         <v>394000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>373000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>234000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>541000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>639000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>392000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>334000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>222000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>308000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>321000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>335000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>291000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>242000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>312000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>296000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>283000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>364000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>237000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>175000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>213000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>28000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1512,8 +1544,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1545,123 +1578,129 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-66000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>97000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>40000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>31000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>29000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E21" s="3">
         <v>409000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>386000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>246000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>553000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>652000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>403000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>345000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>232000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>318000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>322000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>288000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>232000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>346000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>317000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>282000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>276000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>347000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>371000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>274000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>210000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>219000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>35000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1734,156 +1773,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E23" s="3">
         <v>394000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>373000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>234000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>541000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>639000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>392000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>334000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>222000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>308000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>312000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>281000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>225000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>339000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>309000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>276000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>271000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>340000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>364000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>268000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>204000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>213000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>28000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>18000</v>
       </c>
       <c r="M24" s="3">
         <v>18000</v>
       </c>
       <c r="N24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="O24" s="3">
         <v>20000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>15000</v>
       </c>
       <c r="P24" s="3">
         <v>15000</v>
       </c>
       <c r="Q24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E26" s="3">
         <v>366000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>338000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>206000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>506000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>586000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>380000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>302000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>207000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>290000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>294000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>261000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>210000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>324000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>290000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>258000</v>
       </c>
       <c r="S26" s="3">
         <v>258000</v>
       </c>
       <c r="T26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="U26" s="3">
         <v>319000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>341000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>247000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>187000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>195000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>21000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E27" s="3">
         <v>73000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>92000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>107000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>175000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>31000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>24000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,17 +2276,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2234,11 +2294,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2252,8 +2312,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,8 +2466,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2433,123 +2502,129 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>66000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-40000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-31000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-29000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E33" s="3">
         <v>73000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>92000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>107000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>46000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>31000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E35" s="3">
         <v>73000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>92000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>107000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>46000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>31000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,82 +2916,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2881000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2667000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2395000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2838000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3218000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2627000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4292000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3292000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3115000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3101000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2882000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3035000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3162000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2546000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2597000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3062000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1901000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1732000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2056000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2115000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1656000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1925000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2979,82 +3068,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44641000</v>
+      </c>
+      <c r="E43" s="3">
         <v>50612000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58833000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54654000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54045000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46129000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40691000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32987000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27154000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21740000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32147000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26969000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26770000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26746000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27864000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31876000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30221000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30565000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>30760000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>26444000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>24056000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>22387000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20506000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3127,50 +3222,53 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23536000</v>
+      </c>
+      <c r="E45" s="3">
         <v>24581000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22888000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23125000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22099000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21204000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15903000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12789000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12684000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14272000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8794000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8819000</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -3201,8 +3299,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3275,126 +3376,132 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10694000</v>
+      </c>
+      <c r="E47" s="3">
         <v>11290000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8965000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10578000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8522000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8040000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6378000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5848000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7092000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6082000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8943000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7284000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6522000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7103000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6692000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6470000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6209000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6060000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8146000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7364000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6834000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7058000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7777000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E48" s="3">
         <v>109000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>96000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>98000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>101000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>107000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>110000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>118000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>122000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>127000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>131000</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
@@ -3405,8 +3512,8 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3423,8 +3530,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3497,8 +3607,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30709000</v>
+      </c>
+      <c r="E52" s="3">
         <v>24350000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15121000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14400000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15635000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25069000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27821000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29316000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33450000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30187000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17824000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21246000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20273000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26575000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23098000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20355000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21054000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20268000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20232000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>23566000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>24187000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>24710000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>24017000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113386000</v>
+      </c>
+      <c r="E54" s="3">
         <v>114423000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109113000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106282000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>104331000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103764000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95679000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84698000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83965000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75849000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71676000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67804000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66034000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63526000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60547000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>62062000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60303000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59093000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61162000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>59843000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57597000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56257000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>54673000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,230 +4052,240 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>91691000</v>
+      </c>
+      <c r="E57" s="3">
         <v>91923000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>86782000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>85345000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>82082000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>81928000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76441000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69480000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69360000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63348000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56791000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55041000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53763000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51403000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48615000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>50347000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48660000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47928000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48165000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48167000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46777000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>44865000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>42335000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10713000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11690000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11796000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10563000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12005000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12079000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9956000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6366000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5995000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4058000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6335000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3970000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4116000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4265000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4054000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>193000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1331000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>38000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>74000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E59" s="3">
         <v>138000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>131000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>125000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>129000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>126000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>119000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>153000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>163000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>178000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>177000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4219,8 +4358,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4293,8 +4435,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4367,8 +4512,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4515,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110862000</v>
+      </c>
+      <c r="E66" s="3">
         <v>111967000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106718000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>103951000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102181000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>101728000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93728000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83089000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82427000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74363000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70224000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66399000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64654000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62201000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59265000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60819000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59120000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57961000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>60072000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>58747000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>56548000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>55260000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>53699000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4913,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1017000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>953000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>896000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>864000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>781000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>683000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>621000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>583000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>558000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>520000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>484000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>456000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>431000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>390000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>354000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>323000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>290000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>251000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>260000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>236000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>220000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>203000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2524000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2456000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2395000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2331000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2150000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2036000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1951000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1609000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1538000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1486000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1452000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1405000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1380000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1325000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1282000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1243000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1183000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1132000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1090000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1096000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1049000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>997000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>974000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E81" s="3">
         <v>73000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>92000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>107000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>46000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>31000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,34 +5809,35 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>15000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>12000</v>
       </c>
       <c r="G83" s="3">
         <v>12000</v>
       </c>
       <c r="H83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I83" s="3">
         <v>13000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11000</v>
       </c>
       <c r="J83" s="3">
         <v>11000</v>
       </c>
       <c r="K83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L83" s="3">
         <v>10000</v>
@@ -5648,7 +5846,7 @@
         <v>10000</v>
       </c>
       <c r="N83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O83" s="3">
         <v>7000</v>
@@ -5657,22 +5855,22 @@
         <v>7000</v>
       </c>
       <c r="Q83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7000</v>
       </c>
       <c r="U83" s="3">
         <v>7000</v>
       </c>
       <c r="V83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="W83" s="3">
         <v>6000</v>
@@ -5681,13 +5879,16 @@
         <v>6000</v>
       </c>
       <c r="Y83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>7000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-541000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2125000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-375000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1213000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1324000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3734000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4596000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-174000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5203000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>488000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>133000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1442000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>603000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-408000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>632000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>931000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1201000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>709000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>807000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>779000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>430000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-12000</v>
       </c>
       <c r="M91" s="3">
         <v>-12000</v>
       </c>
       <c r="N91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-17000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-129000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-4000</v>
       </c>
       <c r="W94" s="3">
         <v>-4000</v>
       </c>
       <c r="X94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,22 +6714,23 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-10000</v>
       </c>
       <c r="F96" s="3">
         <v>-10000</v>
       </c>
       <c r="G96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="H96" s="3">
         <v>-9000</v>
@@ -6506,13 +6739,13 @@
         <v>-9000</v>
       </c>
       <c r="J96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8000</v>
       </c>
       <c r="M96" s="3">
         <v>-8000</v>
@@ -6521,19 +6754,19 @@
         <v>-8000</v>
       </c>
       <c r="O96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-7000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-7000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-7000</v>
       </c>
       <c r="T96" s="3">
         <v>-7000</v>
@@ -6551,13 +6784,16 @@
         <v>-7000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,226 +7020,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-105000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-174000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-506000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>158000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-555000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>416000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-63000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-61000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-242000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-46000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-58000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-222000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-64000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-80000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-133000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-84000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-77000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-40000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>21000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-76000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>95000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>45000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-38000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>38000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-78000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>38000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>23000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-47000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-831000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1965000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-680000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>646000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1486000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3636000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4114000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>282000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5091000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>453000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-152000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1392000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>489000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-485000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>399000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>770000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1137000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>577000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>757000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>719000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>375000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,354 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E8" s="3">
         <v>768000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>695000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>658000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>515000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>787000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>978000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>654000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>593000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>587000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>645000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>640000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>697000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>652000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>623000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>637000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>578000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>565000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>581000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>456000</v>
-      </c>
-      <c r="X8" s="3">
-        <v>409000</v>
       </c>
       <c r="Y8" s="3">
         <v>409000</v>
       </c>
       <c r="Z8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="AA8" s="3">
         <v>215000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E9" s="3">
         <v>189000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>121000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>108000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>153000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>119000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>113000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>131000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>177000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>173000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>162000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>142000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>119000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>108000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>94000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>78000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>61000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>51000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>35000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>22000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E10" s="3">
         <v>579000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>574000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>550000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>403000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>825000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>533000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>474000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>463000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>532000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>509000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>520000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>479000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>461000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>495000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>459000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>457000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>487000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>422000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>395000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>358000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>374000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>193000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1105,8 +1118,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,8 +1198,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,17 +1242,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1241,11 +1260,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1259,8 +1278,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,8 +1358,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1387,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E17" s="3">
         <v>376000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>301000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>285000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>281000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>246000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>339000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>262000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>259000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>365000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>337000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>319000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>362000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>361000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>381000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>325000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>282000</v>
       </c>
       <c r="T17" s="3">
         <v>282000</v>
       </c>
       <c r="U17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="V17" s="3">
         <v>281000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>136000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>219000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>234000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>196000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>187000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E18" s="3">
         <v>392000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>394000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>373000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>234000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>541000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>639000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>392000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>334000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>222000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>308000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>321000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>335000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>291000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>242000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>312000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>296000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>283000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>364000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>237000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>175000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>213000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>28000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1545,8 +1577,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1581,126 +1614,132 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>97000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>40000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>31000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>29000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E21" s="3">
         <v>406000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>409000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>386000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>246000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>553000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>652000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>403000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>345000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>232000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>318000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>322000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>288000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>232000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>346000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>317000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>282000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>276000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>347000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>371000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>274000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>210000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>219000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>35000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1776,162 +1815,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E23" s="3">
         <v>392000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>394000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>373000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>234000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>541000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>639000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>392000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>334000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>222000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>308000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>312000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>281000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>225000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>339000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>309000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>276000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>271000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>340000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>364000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>268000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>204000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>213000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>28000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>18000</v>
       </c>
       <c r="N24" s="3">
         <v>18000</v>
       </c>
       <c r="O24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="P24" s="3">
         <v>20000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>15000</v>
       </c>
       <c r="Q24" s="3">
         <v>15000</v>
       </c>
       <c r="R24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,162 +2055,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E26" s="3">
         <v>360000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>366000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>338000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>206000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>506000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>586000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>380000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>302000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>207000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>290000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>294000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>261000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>210000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>324000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>290000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>258000</v>
       </c>
       <c r="T26" s="3">
         <v>258000</v>
       </c>
       <c r="U26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="V26" s="3">
         <v>319000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>341000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>247000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>187000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>195000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>21000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E27" s="3">
         <v>72000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>67000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>92000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>107000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>71000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>46000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>41000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>175000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>31000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>24000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,8 +2295,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2279,17 +2339,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2297,11 +2357,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2315,8 +2375,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2455,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,8 +2535,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2505,126 +2574,132 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>66000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-97000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-40000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-31000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E33" s="3">
         <v>72000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>92000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>107000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>71000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>46000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>41000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2775,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E35" s="3">
         <v>72000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>92000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>107000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>71000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>46000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>41000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +2972,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,85 +3002,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3184000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2881000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2667000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2395000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2838000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3218000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2627000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4292000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3292000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3115000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3101000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2882000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3035000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3162000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2546000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2597000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3062000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2500000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1901000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1732000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2056000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2115000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1656000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1925000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,85 +3160,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43969000</v>
+      </c>
+      <c r="E43" s="3">
         <v>44641000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50612000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58833000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54654000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54045000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46129000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40691000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32987000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27154000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21740000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32147000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26969000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26770000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26746000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27864000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31876000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30221000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>30565000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>30760000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26444000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>24056000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>22387000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20506000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3225,53 +3320,56 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25432000</v>
+      </c>
+      <c r="E45" s="3">
         <v>23536000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24581000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22888000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23125000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22099000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21204000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15903000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12789000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12684000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14272000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8794000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8819000</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3302,8 +3400,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3379,132 +3480,138 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9861000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10694000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11290000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8965000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10578000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8522000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8040000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6378000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5848000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7092000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6082000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8943000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7284000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6522000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7103000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6692000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6470000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6209000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6060000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8146000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7364000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6834000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7058000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7777000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E48" s="3">
         <v>105000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>96000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>98000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>101000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>110000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>118000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>122000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>127000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>131000</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
@@ -3515,8 +3622,8 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3533,8 +3640,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3610,8 +3720,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3800,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3880,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31301000</v>
+      </c>
+      <c r="E52" s="3">
         <v>30709000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24350000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15121000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14400000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15635000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25069000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27821000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29316000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33450000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30187000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17824000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21246000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20273000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26575000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23098000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20355000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21054000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20268000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20232000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>23566000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>24187000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>24710000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>24017000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4040,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114683000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113386000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>114423000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109113000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106282000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>104331000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103764000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95679000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84698000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83965000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75849000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71676000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67804000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66034000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63526000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60547000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62062000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60303000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>59093000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61162000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>59843000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>57597000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56257000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>54673000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4152,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,239 +4182,249 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>93618000</v>
+      </c>
+      <c r="E57" s="3">
         <v>91691000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>91923000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>86782000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>85345000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>82082000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>81928000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76441000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69480000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69360000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63348000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>56791000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55041000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53763000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51403000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48615000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>50347000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48660000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47928000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48165000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>48167000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46777000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>44865000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>42335000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9525000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10713000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11690000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11796000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10563000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12005000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12079000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9956000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6366000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5995000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4058000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6335000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3970000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4116000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4265000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4054000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>28000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>193000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1331000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>38000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>38000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>74000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E59" s="3">
         <v>162000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>138000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>130000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>125000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>129000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>126000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>119000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>135000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>163000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>178000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>177000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4361,8 +4500,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4438,8 +4580,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4515,8 +4660,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4740,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4820,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +4900,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112006000</v>
+      </c>
+      <c r="E66" s="3">
         <v>110862000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111967000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106718000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>103951000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102181000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>101728000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93728000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83089000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82427000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74363000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70224000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66399000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64654000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62201000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59265000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60819000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59120000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57961000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>60072000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>58747000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>56548000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>55260000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>53699000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5012,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5090,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5170,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5250,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5330,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1079000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1017000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>953000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>896000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>864000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>781000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>683000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>621000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>583000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>558000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>520000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>484000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>456000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>431000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>390000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>354000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>323000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>290000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>251000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>260000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>236000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>220000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>203000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5490,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5570,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5650,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2677000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2524000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2456000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2395000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2331000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2150000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2036000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1951000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1609000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1538000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1486000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1452000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1405000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1380000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1325000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1282000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1243000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1183000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1132000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1090000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1096000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1049000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>997000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>974000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5810,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E81" s="3">
         <v>72000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>92000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>107000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>71000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>46000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>41000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,8 +6007,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5819,28 +6017,28 @@
         <v>14000</v>
       </c>
       <c r="E83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F83" s="3">
         <v>15000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12000</v>
       </c>
       <c r="H83" s="3">
         <v>12000</v>
       </c>
       <c r="I83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J83" s="3">
         <v>13000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11000</v>
       </c>
       <c r="K83" s="3">
         <v>11000</v>
       </c>
       <c r="L83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M83" s="3">
         <v>10000</v>
@@ -5849,7 +6047,7 @@
         <v>10000</v>
       </c>
       <c r="O83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P83" s="3">
         <v>7000</v>
@@ -5858,22 +6056,22 @@
         <v>7000</v>
       </c>
       <c r="R83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>7000</v>
       </c>
       <c r="V83" s="3">
         <v>7000</v>
       </c>
       <c r="W83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="X83" s="3">
         <v>6000</v>
@@ -5882,13 +6080,16 @@
         <v>6000</v>
       </c>
       <c r="Z83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>7000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6165,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6245,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6325,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6405,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6485,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2414000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-541000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2125000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-375000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1213000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1324000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3734000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4596000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-174000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5203000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>488000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>133000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1442000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>603000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-408000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>632000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>931000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1201000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>709000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>807000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>779000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>430000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6597,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-12000</v>
       </c>
       <c r="N91" s="3">
         <v>-12000</v>
       </c>
       <c r="O91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-17000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6755,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +6835,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-129000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-4000</v>
       </c>
       <c r="X94" s="3">
         <v>-4000</v>
       </c>
       <c r="Y94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,25 +6947,26 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-10000</v>
       </c>
       <c r="G96" s="3">
         <v>-10000</v>
       </c>
       <c r="H96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="I96" s="3">
         <v>-9000</v>
@@ -6742,13 +6975,13 @@
         <v>-9000</v>
       </c>
       <c r="K96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-8000</v>
       </c>
       <c r="N96" s="3">
         <v>-8000</v>
@@ -6757,19 +6990,19 @@
         <v>-8000</v>
       </c>
       <c r="P96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-8000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-7000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-7000</v>
       </c>
       <c r="U96" s="3">
         <v>-7000</v>
@@ -6787,13 +7020,16 @@
         <v>-7000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7105,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7185,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,235 +7265,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-173000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-105000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-174000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-506000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>158000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-555000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>416000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-63000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-242000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-70000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-222000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-64000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-80000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-133000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-84000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-77000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>9000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-105000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-40000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-76000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>95000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>45000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-38000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>38000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-78000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>38000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>23000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-47000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2199000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-831000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1965000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-680000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>646000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1486000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3636000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4114000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>282000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5091000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>453000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-152000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1392000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>489000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-485000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>399000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>770000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1137000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>577000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>757000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>719000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>375000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,366 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>768000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>695000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>658000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>515000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>787000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>978000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>654000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>593000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>587000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>645000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>640000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>697000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>652000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>623000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>637000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>578000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>565000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>581000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>456000</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>409000</v>
       </c>
       <c r="Z8" s="3">
         <v>409000</v>
       </c>
       <c r="AA8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="AB8" s="3">
         <v>215000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E9" s="3">
         <v>396000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>189000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>108000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>153000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>121000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>119000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>113000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>131000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>177000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>173000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>162000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>142000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>119000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>108000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>94000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>78000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>61000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>51000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>35000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>22000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>886000</v>
+      </c>
+      <c r="E10" s="3">
         <v>704000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>579000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>574000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>550000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>403000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>825000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>533000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>474000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>463000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>532000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>509000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>520000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>479000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>461000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>495000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>459000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>457000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>487000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>422000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>395000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>358000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>374000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>193000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1134,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1201,8 +1217,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,17 +1264,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1263,11 +1282,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1281,8 +1300,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1383,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1388,168 +1413,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E17" s="3">
         <v>577000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>376000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>301000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>285000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>281000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>246000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>339000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>262000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>259000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>365000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>337000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>319000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>362000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>361000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>381000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>325000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>282000</v>
       </c>
       <c r="U17" s="3">
         <v>282000</v>
       </c>
       <c r="V17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="W17" s="3">
         <v>281000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>136000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>219000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>234000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>196000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>187000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E18" s="3">
         <v>523000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>392000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>394000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>373000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>234000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>541000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>639000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>392000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>334000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>222000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>308000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>321000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>335000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>291000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>242000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>312000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>296000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>283000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>364000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>237000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>175000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>213000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>28000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,8 +1610,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1617,129 +1650,135 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-66000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>97000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>40000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>31000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>29000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E21" s="3">
         <v>537000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>406000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>409000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>386000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>246000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>553000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>652000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>403000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>345000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>232000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>318000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>322000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>288000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>232000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>346000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>317000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>282000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>276000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>347000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>371000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>274000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>210000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>219000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>35000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1818,168 +1857,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E23" s="3">
         <v>523000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>392000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>394000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>373000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>234000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>541000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>639000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>392000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>334000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>222000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>308000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>312000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>281000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>225000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>339000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>309000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>276000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>271000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>340000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>364000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>268000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>204000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>213000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>28000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>53000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>18000</v>
       </c>
       <c r="O24" s="3">
         <v>18000</v>
       </c>
       <c r="P24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>15000</v>
       </c>
       <c r="R24" s="3">
         <v>15000</v>
       </c>
       <c r="S24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T24" s="3">
         <v>19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,168 +2106,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E26" s="3">
         <v>483000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>360000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>366000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>338000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>206000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>506000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>586000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>380000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>302000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>290000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>294000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>261000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>210000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>324000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>290000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>258000</v>
       </c>
       <c r="U26" s="3">
         <v>258000</v>
       </c>
       <c r="V26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="W26" s="3">
         <v>319000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>341000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>247000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>187000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>195000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>21000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E27" s="3">
         <v>99000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>92000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>107000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>71000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>41000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>175000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>31000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>24000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2298,8 +2355,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2342,17 +2402,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2360,11 +2420,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2378,8 +2438,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2458,8 +2521,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2538,8 +2604,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2577,129 +2646,135 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>54000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>66000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-97000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-40000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E33" s="3">
         <v>99000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>72000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>92000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>41000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>46000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>24000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2778,173 +2853,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E35" s="3">
         <v>99000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>72000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>92000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>41000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>46000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>24000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2973,8 +3057,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,88 +3088,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3436000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3184000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2881000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2667000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2395000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2838000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3218000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2627000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4292000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3292000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3115000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3101000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2882000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3035000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3162000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2546000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2597000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3062000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2500000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1901000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1732000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2056000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2115000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1656000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1925000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3163,88 +3252,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42570000</v>
+      </c>
+      <c r="E43" s="3">
         <v>43969000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44641000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>50612000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58833000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54654000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54045000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46129000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40691000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32987000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27154000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21740000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32147000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26969000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26770000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26746000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27864000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31876000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>30221000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>30565000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30760000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>26444000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>24056000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>22387000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>20506000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3323,56 +3418,59 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25432000</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>23536000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>24581000</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>22888000</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>23125000</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>22099000</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>21204000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15903000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12789000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12684000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14272000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9400000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8794000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8819000</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3403,8 +3501,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3483,138 +3584,144 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9861000</v>
+        <v>36430000</v>
       </c>
       <c r="E47" s="3">
-        <v>10694000</v>
+        <v>35293000</v>
       </c>
       <c r="F47" s="3">
-        <v>11290000</v>
+        <v>34230000</v>
       </c>
       <c r="G47" s="3">
-        <v>8965000</v>
+        <v>35871000</v>
       </c>
       <c r="H47" s="3">
-        <v>10578000</v>
+        <v>31853000</v>
       </c>
       <c r="I47" s="3">
-        <v>8522000</v>
+        <v>33703000</v>
       </c>
       <c r="J47" s="3">
+        <v>30621000</v>
+      </c>
+      <c r="K47" s="3">
         <v>8040000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6378000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5848000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7092000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6082000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8943000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7284000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6522000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7103000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6692000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6470000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6209000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6060000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8146000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7364000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6834000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7058000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7777000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E48" s="3">
         <v>109000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>105000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>96000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>98000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>110000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>118000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>122000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>127000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>131000</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
@@ -3625,8 +3732,8 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3643,8 +3750,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3723,8 +3833,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3803,8 +3916,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3883,88 +3999,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31781000</v>
+      </c>
+      <c r="E52" s="3">
         <v>31301000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30709000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24350000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15121000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14400000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15635000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25069000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27821000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29316000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33450000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30187000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17824000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21246000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20273000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26575000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23098000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20355000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21054000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20268000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20232000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>23566000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>24187000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>24710000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>24017000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4043,88 +4165,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115143000</v>
+      </c>
+      <c r="E54" s="3">
         <v>114683000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113386000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>114423000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109113000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>106282000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104331000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103764000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95679000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84698000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83965000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75849000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71676000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>67804000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66034000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63526000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60547000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62062000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60303000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>59093000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61162000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>59843000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>57597000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>56257000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>54673000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4153,8 +4281,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4183,248 +4312,258 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>94091000</v>
+      </c>
+      <c r="E57" s="3">
         <v>93618000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>91691000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91923000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>86782000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>85345000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>82082000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>81928000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76441000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69480000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69360000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63348000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>56791000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55041000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53763000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51403000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48615000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>50347000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48660000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47928000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>48165000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>48167000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>46777000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>44865000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>42335000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8958000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9525000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10713000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11690000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11796000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10563000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12005000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12079000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9956000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6366000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5995000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4058000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6335000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3970000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4116000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4265000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4054000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>28000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>193000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>19000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1331000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>38000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>38000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>74000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E59" s="3">
         <v>229000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>138000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>131000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>130000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>125000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>129000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>119000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>122000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>135000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>153000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>163000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>178000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>177000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>41000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>27000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4503,8 +4642,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4583,8 +4725,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4663,8 +4808,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4743,8 +4891,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4974,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4903,88 +5057,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112295000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112006000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110862000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111967000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106718000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103951000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102181000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>101728000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93728000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83089000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82427000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74363000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>70224000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66399000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64654000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62201000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59265000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60819000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59120000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57961000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60072000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>58747000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>56548000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>55260000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>53699000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5013,8 +5173,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5093,8 +5254,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5173,8 +5337,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5253,8 +5420,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5333,88 +5503,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1168000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1079000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1017000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>953000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>896000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>864000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>781000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>683000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>621000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>583000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>558000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>520000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>484000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>456000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>431000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>390000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>354000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>323000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>290000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>251000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>260000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>236000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>220000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>203000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5493,8 +5669,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5573,8 +5752,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5653,88 +5835,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2677000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2524000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2456000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2395000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2331000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2150000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2036000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1951000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1609000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1538000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1486000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1452000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1405000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1380000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1325000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1282000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1243000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1183000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1132000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1090000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1096000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1049000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>997000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>974000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5813,173 +6001,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E81" s="3">
         <v>99000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>72000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>92000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>41000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>46000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>24000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6008,40 +6205,41 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="E83" s="3">
         <v>14000</v>
       </c>
       <c r="F83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G83" s="3">
         <v>15000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12000</v>
       </c>
       <c r="I83" s="3">
         <v>12000</v>
       </c>
       <c r="J83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K83" s="3">
         <v>13000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11000</v>
       </c>
       <c r="L83" s="3">
         <v>11000</v>
       </c>
       <c r="M83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N83" s="3">
         <v>10000</v>
@@ -6050,7 +6248,7 @@
         <v>10000</v>
       </c>
       <c r="P83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" s="3">
         <v>7000</v>
@@ -6059,22 +6257,22 @@
         <v>7000</v>
       </c>
       <c r="S83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>7000</v>
       </c>
       <c r="W83" s="3">
         <v>7000</v>
       </c>
       <c r="X83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Y83" s="3">
         <v>6000</v>
@@ -6083,13 +6281,16 @@
         <v>6000</v>
       </c>
       <c r="AA83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>7000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6168,8 +6369,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6248,8 +6452,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6328,8 +6535,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6408,8 +6618,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6488,88 +6701,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2414000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-541000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2125000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-375000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1213000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1324000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3734000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4596000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-174000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5203000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>488000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>133000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1442000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>603000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-408000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>632000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>931000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1201000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>709000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>807000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>779000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>430000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6598,88 +6817,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-12000</v>
       </c>
       <c r="O91" s="3">
         <v>-12000</v>
       </c>
       <c r="P91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6758,8 +6981,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6838,88 +7064,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-4000</v>
       </c>
       <c r="Y94" s="3">
         <v>-4000</v>
       </c>
       <c r="Z94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6948,8 +7180,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6957,19 +7190,19 @@
         <v>-10000</v>
       </c>
       <c r="E96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-10000</v>
       </c>
       <c r="H96" s="3">
         <v>-10000</v>
       </c>
       <c r="I96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="J96" s="3">
         <v>-9000</v>
@@ -6978,13 +7211,13 @@
         <v>-9000</v>
       </c>
       <c r="L96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-8000</v>
       </c>
       <c r="O96" s="3">
         <v>-8000</v>
@@ -6993,19 +7226,19 @@
         <v>-8000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-8000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-7000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-7000</v>
       </c>
       <c r="V96" s="3">
         <v>-7000</v>
@@ -7023,13 +7256,16 @@
         <v>-7000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7108,8 +7344,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7188,8 +7427,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7268,244 +7510,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-70000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-173000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-105000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-174000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-506000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>158000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-555000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>416000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-58000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-222000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-64000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-80000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-133000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-84000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-77000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>9000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-123000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-105000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-41000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-40000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-76000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>95000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>45000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>38000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-78000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>38000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>23000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-47000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2199000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-831000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1965000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-680000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>646000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1486000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3636000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4114000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>282000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5091000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>453000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1392000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>489000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-485000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>399000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>770000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1137000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>577000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>757000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>719000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>375000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,378 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1522000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>768000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>695000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>658000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>515000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>787000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>978000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>654000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>593000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>587000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>645000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>640000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>697000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>652000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>623000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>637000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>578000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>565000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>581000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>456000</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>409000</v>
       </c>
       <c r="AA8" s="3">
         <v>409000</v>
       </c>
       <c r="AB8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="AC8" s="3">
         <v>215000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E9" s="3">
         <v>636000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>396000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>189000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>121000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>108000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>153000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>121000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>119000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>124000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>113000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>131000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>177000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>173000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>162000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>142000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>119000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>108000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>94000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>78000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>61000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>51000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>35000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>22000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>961000</v>
+      </c>
+      <c r="E10" s="3">
         <v>886000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>704000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>579000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>574000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>550000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>403000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>825000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>533000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>474000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>463000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>532000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>509000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>520000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>479000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>461000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>495000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>459000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>457000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>487000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>422000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>395000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>358000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>374000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>193000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1150,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,8 +1236,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1267,17 +1286,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1285,11 +1304,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1303,8 +1322,11 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,8 +1408,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1414,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1005000</v>
+      </c>
+      <c r="E17" s="3">
         <v>833000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>577000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>376000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>301000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>285000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>281000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>246000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>339000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>262000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>259000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>365000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>337000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>319000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>362000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>361000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>381000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>325000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>282000</v>
       </c>
       <c r="V17" s="3">
         <v>282000</v>
       </c>
       <c r="W17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="X17" s="3">
         <v>281000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>136000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>219000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>234000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>196000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>187000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>761000</v>
+      </c>
+      <c r="E18" s="3">
         <v>689000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>523000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>392000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>394000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>373000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>234000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>541000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>639000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>392000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>334000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>222000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>308000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>321000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>335000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>291000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>242000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>312000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>296000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>283000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>364000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>237000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>175000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>213000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>28000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1611,8 +1643,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1653,132 +1686,138 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-54000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-66000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>97000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>40000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>31000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>29000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>777000</v>
+      </c>
+      <c r="E21" s="3">
         <v>704000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>537000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>406000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>409000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>386000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>246000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>553000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>652000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>403000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>345000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>232000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>318000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>322000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>288000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>232000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>346000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>317000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>282000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>276000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>347000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>371000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>274000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>210000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>219000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>35000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1860,174 +1899,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>761000</v>
+      </c>
+      <c r="E23" s="3">
         <v>689000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>523000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>392000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>394000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>373000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>234000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>541000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>639000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>392000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>334000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>222000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>308000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>312000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>225000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>339000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>309000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>276000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>271000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>340000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>364000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>268000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>204000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>213000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>28000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E24" s="3">
         <v>56000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>18000</v>
       </c>
       <c r="P24" s="3">
         <v>18000</v>
       </c>
       <c r="Q24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R24" s="3">
         <v>20000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>15000</v>
       </c>
       <c r="S24" s="3">
         <v>15000</v>
       </c>
       <c r="T24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U24" s="3">
         <v>19000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>17000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>18000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2109,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E26" s="3">
         <v>633000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>483000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>360000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>366000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>338000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>206000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>506000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>586000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>380000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>302000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>290000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>294000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>261000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>210000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>324000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>290000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>258000</v>
       </c>
       <c r="V26" s="3">
         <v>258000</v>
       </c>
       <c r="W26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="X26" s="3">
         <v>319000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>341000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>247000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>187000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>195000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>21000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E27" s="3">
         <v>136000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>99000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>72000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>92000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>107000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>71000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>41000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>175000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>31000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>24000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2358,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,17 +2465,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2423,11 +2483,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2441,8 +2501,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2607,8 +2673,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2649,132 +2718,138 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>54000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>66000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-97000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-40000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-29000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E33" s="3">
         <v>136000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>99000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>92000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>41000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>46000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>24000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2856,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E35" s="3">
         <v>136000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>99000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>92000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>41000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>46000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>24000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3089,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3214000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3436000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3184000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2881000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2667000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2395000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2838000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3218000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2627000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4292000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3292000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3115000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3101000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2882000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3035000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3162000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2546000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2597000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3062000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2500000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1901000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1732000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2056000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2115000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1656000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1925000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3255,91 +3344,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41541000</v>
+      </c>
+      <c r="E43" s="3">
         <v>42570000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43969000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44641000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50612000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58833000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54654000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54045000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46129000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40691000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32987000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27154000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21740000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32147000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26969000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26770000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26746000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27864000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31876000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>30221000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30565000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>30760000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>26444000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>24056000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>22387000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>20506000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3421,59 +3516,62 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>61341000</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>56948000</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>56733000</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>54245000</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>48931000</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>38009000</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>37525000</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>21204000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15903000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12789000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12684000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14272000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8794000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8819000</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3504,8 +3602,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3587,144 +3688,150 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36430000</v>
+        <v>12388000</v>
       </c>
       <c r="E47" s="3">
-        <v>35293000</v>
+        <v>11263000</v>
       </c>
       <c r="F47" s="3">
-        <v>34230000</v>
+        <v>9861000</v>
       </c>
       <c r="G47" s="3">
-        <v>35871000</v>
+        <v>10694000</v>
       </c>
       <c r="H47" s="3">
-        <v>31853000</v>
+        <v>11290000</v>
       </c>
       <c r="I47" s="3">
-        <v>33703000</v>
+        <v>8965000</v>
       </c>
       <c r="J47" s="3">
+        <v>10578000</v>
+      </c>
+      <c r="K47" s="3">
         <v>30621000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8040000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6378000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5848000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7092000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6082000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8943000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7284000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6522000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7103000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6692000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6470000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6209000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6060000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8146000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7364000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>6834000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7058000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7777000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E48" s="3">
         <v>119000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>105000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>96000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>101000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>110000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>118000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>122000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>127000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>131000</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -3735,8 +3842,8 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3753,8 +3860,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3836,8 +3946,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3919,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4002,91 +4118,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31781000</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>31301000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>30709000</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>24350000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>15121000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>14400000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>15635000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25069000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27821000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29316000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33450000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30187000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17824000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21246000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20273000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26575000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23098000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20355000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21054000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20268000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20232000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>23566000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>24187000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>24710000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>24017000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4168,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>119469000</v>
+      </c>
+      <c r="E54" s="3">
         <v>115143000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>114683000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113386000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>114423000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109113000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106282000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104331000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103764000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95679000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84698000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83965000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75849000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71676000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67804000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66034000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63526000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60547000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>62062000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60303000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>59093000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61162000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>59843000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>57597000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>56257000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>54673000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4282,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4313,257 +4442,267 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>95939000</v>
+      </c>
+      <c r="E57" s="3">
         <v>94091000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>93618000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91691000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91923000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>86782000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>85345000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>82082000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>81928000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>76441000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69480000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69360000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63348000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>56791000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55041000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53763000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51403000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>48615000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>50347000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48660000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>47928000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>48165000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>48167000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>46777000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>44865000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>42335000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10729000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8958000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9525000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10713000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11690000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11796000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10563000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12005000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12079000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9956000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6366000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5995000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4058000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6335000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3970000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4116000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4265000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4054000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>28000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>193000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>19000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1331000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>38000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>38000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>74000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E59" s="3">
         <v>333000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>138000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>130000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>125000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>126000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>119000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>122000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>135000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>153000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>163000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>178000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>177000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>41000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>27000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4645,8 +4784,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4728,8 +4870,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4811,8 +4956,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4894,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4977,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5060,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>116468000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112295000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112006000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110862000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111967000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106718000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>103951000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102181000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>101728000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93728000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83089000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82427000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74363000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>70224000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66399000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64654000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62201000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59265000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>60819000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59120000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>57961000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>60072000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>58747000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>56548000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>55260000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>53699000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5174,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5257,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5340,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5423,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5506,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1294000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1168000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1079000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1017000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>953000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>896000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>864000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>781000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>683000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>621000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>583000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>558000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>520000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>484000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>456000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>431000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>390000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>354000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>323000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>290000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>251000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>260000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>236000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>220000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>203000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5672,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5755,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5838,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3001000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2848000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2677000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2524000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2456000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2395000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2331000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2150000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2036000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1951000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1609000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1538000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1486000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1452000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1405000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1380000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1325000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1282000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1243000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1183000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1132000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1090000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1096000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1049000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>997000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>974000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6004,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E81" s="3">
         <v>136000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>99000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>92000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>41000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>46000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>24000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6206,43 +6403,44 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E83" s="3">
         <v>15000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>14000</v>
       </c>
       <c r="F83" s="3">
         <v>14000</v>
       </c>
       <c r="G83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H83" s="3">
         <v>15000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12000</v>
       </c>
       <c r="J83" s="3">
         <v>12000</v>
       </c>
       <c r="K83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L83" s="3">
         <v>13000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>11000</v>
       </c>
       <c r="M83" s="3">
         <v>11000</v>
       </c>
       <c r="N83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O83" s="3">
         <v>10000</v>
@@ -6251,7 +6449,7 @@
         <v>10000</v>
       </c>
       <c r="Q83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="R83" s="3">
         <v>7000</v>
@@ -6260,22 +6458,22 @@
         <v>7000</v>
       </c>
       <c r="T83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>7000</v>
       </c>
       <c r="X83" s="3">
         <v>7000</v>
       </c>
       <c r="Y83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Z83" s="3">
         <v>6000</v>
@@ -6284,13 +6482,16 @@
         <v>6000</v>
       </c>
       <c r="AB83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>7000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6372,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6455,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6538,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6621,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6704,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-923000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2414000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-541000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2125000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-375000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1213000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1324000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3734000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4596000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-174000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5203000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>488000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>133000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1442000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>603000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-408000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>632000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>931000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1201000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>709000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>807000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>779000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>430000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6818,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-12000</v>
       </c>
       <c r="P91" s="3">
         <v>-12000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-17000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6984,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7067,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-129000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-28000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-4000</v>
       </c>
       <c r="Z94" s="3">
         <v>-4000</v>
       </c>
       <c r="AA94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7181,8 +7413,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7193,19 +7426,19 @@
         <v>-10000</v>
       </c>
       <c r="F96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-11000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-10000</v>
       </c>
       <c r="I96" s="3">
         <v>-10000</v>
       </c>
       <c r="J96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="K96" s="3">
         <v>-9000</v>
@@ -7214,13 +7447,13 @@
         <v>-9000</v>
       </c>
       <c r="M96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-8000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-8000</v>
       </c>
       <c r="P96" s="3">
         <v>-8000</v>
@@ -7229,19 +7462,19 @@
         <v>-8000</v>
       </c>
       <c r="R96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-7000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-8000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-7000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-7000</v>
       </c>
       <c r="W96" s="3">
         <v>-7000</v>
@@ -7259,13 +7492,16 @@
         <v>-7000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7347,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7430,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7513,253 +7755,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-122000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-70000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-173000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-105000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-174000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-506000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>158000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-555000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>416000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-63000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-242000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-46000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-58000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-222000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-64000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-80000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-133000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-84000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-77000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>9000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>158000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-123000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-105000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-40000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-76000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>95000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>45000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-78000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>38000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>23000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-47000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1035000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2199000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-831000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1965000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-680000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>646000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1486000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3636000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4114000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>282000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5091000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>453000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-152000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1392000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>489000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-485000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>399000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>770000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1137000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>577000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>757000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>719000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>375000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,390 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1766000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1522000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>768000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>695000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>658000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>515000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>787000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>978000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>654000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>593000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>587000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>645000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>640000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>697000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>652000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>623000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>637000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>578000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>565000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>581000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>456000</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>409000</v>
       </c>
       <c r="AB8" s="3">
         <v>409000</v>
       </c>
       <c r="AC8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="AD8" s="3">
         <v>215000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E9" s="3">
         <v>805000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>636000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>396000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>189000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>121000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>108000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>153000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>121000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>124000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>113000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>131000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>177000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>173000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>162000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>142000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>119000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>108000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>94000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>78000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>61000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>51000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>35000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>22000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E10" s="3">
         <v>961000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>886000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>704000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>579000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>574000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>550000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>403000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>825000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>533000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>474000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>463000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>532000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>509000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>520000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>479000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>461000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>495000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>459000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>457000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>487000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>422000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>395000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>358000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>374000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>193000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,8 +1166,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,8 +1255,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,17 +1308,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1307,11 +1326,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1325,8 +1344,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,8 +1433,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1465,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1005000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>833000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>577000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>376000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>301000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>285000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>281000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>339000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>262000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>259000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>365000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>337000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>319000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>362000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>361000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>381000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>325000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>282000</v>
       </c>
       <c r="W17" s="3">
         <v>282000</v>
       </c>
       <c r="X17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="Y17" s="3">
         <v>281000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>136000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>219000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>234000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>196000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>187000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E18" s="3">
         <v>761000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>689000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>523000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>392000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>394000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>373000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>234000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>541000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>639000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>392000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>334000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>222000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>308000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>321000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>335000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>291000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>242000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>312000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>296000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>283000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>364000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>237000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>175000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>213000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>28000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1644,8 +1676,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1689,135 +1722,141 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-66000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>97000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>40000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>31000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>29000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E21" s="3">
         <v>777000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>704000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>537000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>406000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>409000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>386000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>246000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>553000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>652000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>403000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>345000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>232000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>318000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>322000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>288000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>232000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>346000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>317000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>282000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>276000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>347000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>371000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>274000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>210000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>219000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>35000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1902,180 +1941,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E23" s="3">
         <v>761000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>689000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>523000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>392000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>394000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>373000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>234000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>541000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>639000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>392000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>334000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>222000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>308000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>312000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>225000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>339000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>309000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>276000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>271000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>340000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>364000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>268000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>204000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>213000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>28000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E24" s="3">
         <v>61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>56000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>18000</v>
       </c>
       <c r="Q24" s="3">
         <v>18000</v>
       </c>
       <c r="R24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S24" s="3">
         <v>20000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>15000</v>
       </c>
       <c r="T24" s="3">
         <v>15000</v>
       </c>
       <c r="U24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V24" s="3">
         <v>19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>18000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2160,180 +2208,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E26" s="3">
         <v>700000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>633000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>483000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>360000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>366000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>338000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>206000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>506000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>586000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>380000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>302000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>290000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>294000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>261000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>210000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>324000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>290000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>258000</v>
       </c>
       <c r="W26" s="3">
         <v>258000</v>
       </c>
       <c r="X26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="Y26" s="3">
         <v>319000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>341000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>247000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>187000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>195000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>21000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E27" s="3">
         <v>148000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>136000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>99000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>72000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>67000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>71000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>39000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>41000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>46000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>175000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>31000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>24000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2418,8 +2475,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,17 +2528,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2486,11 +2546,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2504,8 +2564,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2653,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2676,8 +2742,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2721,135 +2790,141 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>66000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-97000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-29000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E33" s="3">
         <v>148000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>136000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>99000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>72000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>92000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>39000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>41000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>46000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>31000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>24000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,185 +3009,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E35" s="3">
         <v>148000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>136000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>99000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>72000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>92000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>39000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>41000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>46000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>31000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>24000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +3227,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,94 +3260,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3681000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3214000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3436000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3184000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2881000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2667000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2395000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2838000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3218000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2627000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4292000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3292000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3115000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3101000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2882000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3035000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3162000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2546000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2597000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3062000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2500000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1901000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1732000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2056000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2115000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1656000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1925000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3347,94 +3436,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43757000</v>
+      </c>
+      <c r="E43" s="3">
         <v>41541000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42570000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43969000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44641000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50612000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58833000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54654000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54045000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46129000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40691000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32987000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27154000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21740000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32147000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26969000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26770000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26746000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27864000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>31876000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30221000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>30565000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>30760000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>26444000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>24056000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>22387000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20506000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3519,62 +3614,65 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59227000</v>
+      </c>
+      <c r="E45" s="3">
         <v>61341000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56948000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56733000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>54245000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48931000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38009000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37525000</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>21204000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15903000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12789000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12684000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14272000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8794000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8819000</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3605,8 +3703,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3691,150 +3792,156 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12925000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12388000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11263000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9861000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10694000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11290000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8965000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10578000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30621000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8040000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6378000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5848000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7092000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6082000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8943000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7284000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6522000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7103000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6692000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6470000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6209000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6060000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8146000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7364000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>6834000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7058000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>7777000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E48" s="3">
         <v>120000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>105000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>109000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>101000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>101000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>110000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>118000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>122000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>127000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>131000</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
@@ -3845,8 +3952,8 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3863,8 +3970,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3949,8 +4059,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +4148,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4121,8 +4237,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4148,67 +4267,70 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>15635000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25069000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27821000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29316000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33450000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30187000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17824000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21246000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20273000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26575000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>23098000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20355000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>21054000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20268000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20232000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>23566000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>24187000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>24710000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>24017000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4293,94 +4415,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120593000</v>
+      </c>
+      <c r="E54" s="3">
         <v>119469000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115143000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>114683000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113386000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>114423000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109113000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106282000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>104331000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103764000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95679000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84698000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83965000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75849000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71676000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67804000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66034000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63526000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60547000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>62062000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60303000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>59093000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61162000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>59843000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>57597000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>56257000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>54673000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4411,8 +4539,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4443,266 +4572,276 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97090000</v>
+      </c>
+      <c r="E57" s="3">
         <v>95939000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>94091000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>93618000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91691000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91923000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>86782000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>85345000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>82082000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>81928000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>76441000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69480000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>69360000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63348000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>56791000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55041000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>53763000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51403000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>48615000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>50347000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>48660000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>47928000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>48165000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>48167000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>46777000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>44865000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>42335000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10278000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10729000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8958000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9525000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10713000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11690000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11796000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10563000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12005000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12079000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9956000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6366000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5995000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4058000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6335000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3970000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4116000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4265000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4054000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>28000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>193000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>19000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1331000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>38000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>38000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>74000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E59" s="3">
         <v>378000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>333000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>138000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>130000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>126000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>119000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>122000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>135000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>153000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>163000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>178000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>177000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>41000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>29000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>27000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>22000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4787,8 +4926,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4873,8 +5015,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4959,8 +5104,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5193,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5131,8 +5282,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5217,94 +5371,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117435000</v>
+      </c>
+      <c r="E66" s="3">
         <v>116468000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112295000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112006000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110862000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111967000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106718000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>103951000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102181000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>101728000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93728000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83089000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82427000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74363000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70224000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66399000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>64654000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62201000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59265000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>60819000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>59120000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>57961000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>60072000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>58747000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>56548000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>55260000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>53699000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5335,8 +5495,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5421,8 +5582,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5507,8 +5671,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,8 +5760,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5679,94 +5849,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1432000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1294000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1168000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1079000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1017000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>953000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>896000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>864000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>781000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>683000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>621000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>583000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>558000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>520000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>484000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>456000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>431000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>390000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>354000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>323000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>290000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>251000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>260000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>236000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>220000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>203000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5851,8 +6027,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5937,8 +6116,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,94 +6205,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3158000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3001000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2848000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2677000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2524000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2456000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2395000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2331000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2150000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2036000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1951000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1609000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1538000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1486000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1452000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1405000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1380000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1325000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1282000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1243000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1183000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1132000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1090000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1096000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1049000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>997000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>974000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6195,185 +6383,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E81" s="3">
         <v>148000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>136000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>99000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>72000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>92000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>39000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>41000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>46000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>31000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>24000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6404,8 +6601,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6413,37 +6611,37 @@
         <v>16000</v>
       </c>
       <c r="E83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F83" s="3">
         <v>15000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>14000</v>
       </c>
       <c r="G83" s="3">
         <v>14000</v>
       </c>
       <c r="H83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I83" s="3">
         <v>15000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12000</v>
       </c>
       <c r="K83" s="3">
         <v>12000</v>
       </c>
       <c r="L83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M83" s="3">
         <v>13000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>11000</v>
       </c>
       <c r="N83" s="3">
         <v>11000</v>
       </c>
       <c r="O83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P83" s="3">
         <v>10000</v>
@@ -6452,7 +6650,7 @@
         <v>10000</v>
       </c>
       <c r="R83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="S83" s="3">
         <v>7000</v>
@@ -6461,22 +6659,22 @@
         <v>7000</v>
       </c>
       <c r="U83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>7000</v>
       </c>
       <c r="Y83" s="3">
         <v>7000</v>
       </c>
       <c r="Z83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="AA83" s="3">
         <v>6000</v>
@@ -6485,13 +6683,16 @@
         <v>6000</v>
       </c>
       <c r="AC83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>7000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6576,8 +6777,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,8 +6866,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6748,8 +6955,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6834,8 +7044,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6920,94 +7133,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-923000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2414000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-541000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2125000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-375000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1213000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1324000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3734000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4596000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-174000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5203000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>488000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>133000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1442000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>603000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-408000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>632000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>931000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1201000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>709000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>807000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>779000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>430000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7038,94 +7257,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-12000</v>
       </c>
       <c r="Q91" s="3">
         <v>-12000</v>
       </c>
       <c r="R91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-17000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7210,8 +7433,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7296,94 +7522,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-129000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-28000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-4000</v>
       </c>
       <c r="AA94" s="3">
         <v>-4000</v>
       </c>
       <c r="AB94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7414,13 +7646,14 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10000</v>
+        <v>-11000</v>
       </c>
       <c r="E96" s="3">
         <v>-10000</v>
@@ -7429,19 +7662,19 @@
         <v>-10000</v>
       </c>
       <c r="G96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-11000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-10000</v>
       </c>
       <c r="J96" s="3">
         <v>-10000</v>
       </c>
       <c r="K96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="L96" s="3">
         <v>-9000</v>
@@ -7450,13 +7683,13 @@
         <v>-9000</v>
       </c>
       <c r="N96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-8000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8000</v>
       </c>
       <c r="Q96" s="3">
         <v>-8000</v>
@@ -7465,19 +7698,19 @@
         <v>-8000</v>
       </c>
       <c r="S96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-7000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-8000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-7000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-7000</v>
       </c>
       <c r="X96" s="3">
         <v>-7000</v>
@@ -7495,13 +7728,16 @@
         <v>-7000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7586,8 +7822,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7672,8 +7911,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,262 +8000,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-137000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-122000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-70000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-173000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-105000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-174000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-506000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>158000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-555000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>416000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-242000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-46000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-58000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-222000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-55000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-80000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-133000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-84000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-77000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>9000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E101" s="3">
         <v>19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>158000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-123000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-105000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-41000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-40000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-76000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>95000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>45000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>38000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>16000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-78000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>38000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>23000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-47000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1035000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2199000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-831000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1965000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-680000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>646000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1486000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3636000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4114000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>282000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5091000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>453000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-152000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1392000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>489000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-485000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>399000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>770000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1137000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>577000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>757000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>719000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>375000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>107000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBKR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>IBKR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,390 +665,402 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2055000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1851000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1766000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1522000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>768000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>695000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>658000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>515000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>787000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>978000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>654000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>593000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>587000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>645000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>640000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>697000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>652000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>623000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>637000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>578000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>565000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>581000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>456000</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>409000</v>
       </c>
       <c r="AC8" s="3">
         <v>409000</v>
       </c>
       <c r="AD8" s="3">
+        <v>409000</v>
+      </c>
+      <c r="AE8" s="3">
         <v>215000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>366000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E9" s="3">
         <v>944000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>805000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>636000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>396000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>189000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>121000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>108000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>153000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>121000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>124000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>113000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>131000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>177000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>173000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>162000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>142000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>119000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>108000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>94000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>78000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>61000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>51000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>35000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>22000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E10" s="3">
         <v>907000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>961000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>886000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>704000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>579000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>574000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>550000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>403000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>825000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>533000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>474000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>463000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>532000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>509000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>520000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>479000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>461000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>495000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>459000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>457000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>487000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>422000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>395000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>358000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>374000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>193000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1092,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1182,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,8 +1274,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,17 +1330,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1329,11 +1348,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-93000</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1347,8 +1366,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,8 +1458,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1466,186 +1491,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1199000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1005000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>833000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>577000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>376000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>301000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>285000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>281000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>339000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>262000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>259000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>365000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>337000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>319000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>362000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>361000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>381000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>325000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>282000</v>
       </c>
       <c r="X17" s="3">
         <v>282000</v>
       </c>
       <c r="Y17" s="3">
+        <v>282000</v>
+      </c>
+      <c r="Z17" s="3">
         <v>281000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>136000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>219000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>234000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>196000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>187000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>840000</v>
+      </c>
+      <c r="E18" s="3">
         <v>652000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>761000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>689000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>523000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>392000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>394000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>373000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>234000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>541000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>639000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>392000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>334000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>222000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>308000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>321000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>335000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>291000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>242000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>312000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>296000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>283000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>364000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>237000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>175000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>213000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>28000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,8 +1709,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,138 +1758,144 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-54000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-66000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>97000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>40000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>31000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>29000</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>857000</v>
+      </c>
+      <c r="E21" s="3">
         <v>668000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>777000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>704000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>537000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>406000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>409000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>386000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>246000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>553000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>652000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>403000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>345000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>232000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>318000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>322000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>288000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>232000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>346000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>317000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>282000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>276000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>347000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>371000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>274000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>210000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>219000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>35000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1944,186 +1983,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>840000</v>
+      </c>
+      <c r="E23" s="3">
         <v>652000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>761000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>689000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>523000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>392000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>394000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>373000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>234000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>541000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>639000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>392000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>334000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>222000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>308000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>312000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>281000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>225000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>339000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>309000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>276000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>271000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>340000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>364000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>268000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>204000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>213000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>28000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>183000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E24" s="3">
         <v>51000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>18000</v>
       </c>
       <c r="R24" s="3">
         <v>18000</v>
       </c>
       <c r="S24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="T24" s="3">
         <v>20000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>15000</v>
       </c>
       <c r="U24" s="3">
         <v>15000</v>
       </c>
       <c r="V24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W24" s="3">
         <v>19000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>21000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>17000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>18000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,186 +2259,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>772000</v>
+      </c>
+      <c r="E26" s="3">
         <v>601000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>633000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>483000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>360000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>366000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>338000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>206000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>506000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>586000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>380000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>302000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>207000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>290000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>294000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>261000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>210000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>324000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>290000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>258000</v>
       </c>
       <c r="X26" s="3">
         <v>258000</v>
       </c>
       <c r="Y26" s="3">
+        <v>258000</v>
+      </c>
+      <c r="Z26" s="3">
         <v>319000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>341000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>247000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>187000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>195000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>21000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E27" s="3">
         <v>125000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>148000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>136000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>99000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>72000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>73000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>67000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>71000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>43000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>39000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>41000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>46000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>175000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>31000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>23000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>24000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2535,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2531,17 +2591,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2549,11 +2609,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-177000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2567,8 +2627,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2656,8 +2719,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2745,8 +2811,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2793,138 +2862,144 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>54000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>66000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-97000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-31000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-29000</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E33" s="3">
         <v>125000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>148000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>136000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>99000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>72000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>73000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>92000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>49000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>39000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>41000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>46000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>31000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>23000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>24000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,191 +3087,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E35" s="3">
         <v>125000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>148000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>136000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>99000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>72000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>73000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>92000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>49000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>39000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>41000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>46000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>31000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>23000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>24000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3312,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3261,97 +3346,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3824000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3681000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3214000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3436000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3184000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2881000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2667000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2395000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2838000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3218000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2627000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4292000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3292000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3115000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3101000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2882000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3035000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3162000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2546000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2597000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3062000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2500000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1901000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1732000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2056000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2115000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1656000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1925000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1550000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3439,97 +3528,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45768000</v>
+      </c>
+      <c r="E43" s="3">
         <v>43757000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41541000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42570000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43969000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44641000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50612000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58833000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54654000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54045000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46129000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40691000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32987000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27154000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21740000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32147000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26969000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26770000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>26746000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27864000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>31876000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>30221000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>30565000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>30760000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>26444000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>24056000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>22387000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>20506000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>19053000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3617,65 +3712,68 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57720000</v>
+      </c>
+      <c r="E45" s="3">
         <v>59227000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61341000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56948000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56733000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>54245000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48931000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38009000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>37525000</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>21204000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15903000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12789000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12684000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14272000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9400000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8794000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8819000</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3706,8 +3804,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3795,156 +3896,162 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12282000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12925000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12388000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11263000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9861000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10694000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11290000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8965000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10578000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30621000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8040000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6378000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5848000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7092000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6082000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8943000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7284000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6522000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7103000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6692000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6470000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6209000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6060000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8146000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7364000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>6834000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>7058000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>7777000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>8756000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E48" s="3">
         <v>119000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>120000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>105000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>109000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>101000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>96000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>101000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>110000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>118000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>122000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>127000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>131000</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
@@ -3955,8 +4062,8 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3973,8 +4080,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4062,8 +4172,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,8 +4264,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4240,8 +4356,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4270,67 +4389,70 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>15635000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25069000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27821000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29316000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33450000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30187000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17824000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21246000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20273000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26575000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>23098000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20355000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>21054000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20268000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>20232000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>23566000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>24187000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>24710000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>24017000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>25250000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4418,97 +4540,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120636000</v>
+      </c>
+      <c r="E54" s="3">
         <v>120593000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119469000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>115143000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>114683000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113386000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>114423000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109113000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106282000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104331000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103764000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95679000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84698000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83965000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>75849000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71676000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>67804000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>66034000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63526000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60547000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>62062000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>60303000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>59093000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>61162000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>59843000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>57597000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>56257000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>54673000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>55064000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4540,8 +4668,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,275 +4702,285 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96255000</v>
+      </c>
+      <c r="E57" s="3">
         <v>97090000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>95939000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>94091000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>93618000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91691000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>91923000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>86782000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>85345000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>82082000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>81928000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>76441000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>69480000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>69360000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63348000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56791000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55041000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>53763000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>51403000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48615000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>50347000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>48660000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>47928000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>48165000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>48167000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>46777000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>44865000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>42335000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>43090000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10493000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10278000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10729000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8958000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9525000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10713000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11690000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11796000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10563000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12005000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12079000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9956000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6366000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5995000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4058000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6335000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3970000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4116000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4265000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4054000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>28000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>193000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>19000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1331000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>38000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>9000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>38000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>74000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E59" s="3">
         <v>411000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>378000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>333000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>229000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>138000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>125000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>129000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>126000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>119000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>122000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>135000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>153000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>163000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>178000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>177000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>41000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>35000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>29000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>27000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>22000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>14000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>6000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4929,8 +5068,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5018,8 +5160,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5107,8 +5252,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5196,8 +5344,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5285,8 +5436,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5374,97 +5528,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117246000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117435000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>116468000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112295000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112006000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110862000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111967000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106718000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103951000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102181000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101728000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93728000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>83089000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82427000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74363000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>70224000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66399000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64654000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62201000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59265000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60819000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59120000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>57961000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>60072000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>58747000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>56548000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>55260000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>53699000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>54083000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +5656,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5585,8 +5746,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5838,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5763,8 +5930,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5852,97 +6022,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1546000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1432000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1294000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1168000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1079000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1017000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>953000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>896000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>864000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>781000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>683000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>621000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>583000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>558000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>520000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>484000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>456000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>431000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>390000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>354000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>323000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>290000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>251000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>260000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>236000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>220000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>203000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6030,8 +6206,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6119,8 +6298,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6208,97 +6390,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3390000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3158000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3001000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2848000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2677000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2524000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2456000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2395000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2331000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2150000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2036000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1951000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1609000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1538000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1486000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1452000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1405000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1380000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1325000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1282000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1243000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1183000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1132000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1090000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1096000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1049000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>997000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>974000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>981000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6386,191 +6574,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E81" s="3">
         <v>125000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>148000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>136000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>99000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>72000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>73000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>92000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>49000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>39000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>41000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>46000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>31000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>23000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>24000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6602,49 +6799,50 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="E83" s="3">
         <v>16000</v>
       </c>
       <c r="F83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G83" s="3">
         <v>15000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>14000</v>
       </c>
       <c r="H83" s="3">
         <v>14000</v>
       </c>
       <c r="I83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J83" s="3">
         <v>15000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12000</v>
       </c>
       <c r="L83" s="3">
         <v>12000</v>
       </c>
       <c r="M83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N83" s="3">
         <v>13000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>11000</v>
       </c>
       <c r="O83" s="3">
         <v>11000</v>
       </c>
       <c r="P83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q83" s="3">
         <v>10000</v>
@@ -6653,7 +6851,7 @@
         <v>10000</v>
       </c>
       <c r="S83" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="T83" s="3">
         <v>7000</v>
@@ -6662,22 +6860,22 @@
         <v>7000</v>
       </c>
       <c r="V83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>7000</v>
       </c>
       <c r="Z83" s="3">
         <v>7000</v>
       </c>
       <c r="AA83" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="AB83" s="3">
         <v>6000</v>
@@ -6686,13 +6884,16 @@
         <v>6000</v>
       </c>
       <c r="AD83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>7000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6780,8 +6981,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6869,8 +7073,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6958,8 +7165,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7047,8 +7257,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,97 +7349,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2119000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-923000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2414000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-541000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2125000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-375000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1213000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1324000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3734000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4596000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-174000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1557000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5203000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>488000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>133000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1442000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>603000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-408000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>632000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>931000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1201000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2153000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>709000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>807000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>779000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>430000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7258,97 +7477,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-12000</v>
       </c>
       <c r="R91" s="3">
         <v>-12000</v>
       </c>
       <c r="S91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-17000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-6000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7436,8 +7659,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7525,97 +7751,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-42000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12000</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-4000</v>
       </c>
       <c r="AB94" s="3">
         <v>-4000</v>
       </c>
       <c r="AC94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-17000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,16 +7879,17 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-10000</v>
       </c>
       <c r="F96" s="3">
         <v>-10000</v>
@@ -7665,19 +7898,19 @@
         <v>-10000</v>
       </c>
       <c r="H96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-11000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-10000</v>
       </c>
       <c r="K96" s="3">
         <v>-10000</v>
       </c>
       <c r="L96" s="3">
-        <v>-9000</v>
+        <v>-10000</v>
       </c>
       <c r="M96" s="3">
         <v>-9000</v>
@@ -7686,13 +7919,13 @@
         <v>-9000</v>
       </c>
       <c r="O96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-8000</v>
       </c>
       <c r="R96" s="3">
         <v>-8000</v>
@@ -7701,19 +7934,19 @@
         <v>-8000</v>
       </c>
       <c r="T96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-7000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-8000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-7000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-8000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-7000</v>
       </c>
       <c r="Y96" s="3">
         <v>-7000</v>
@@ -7731,13 +7964,16 @@
         <v>-7000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-6000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7825,8 +8061,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7914,8 +8153,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8003,271 +8245,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-252000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-137000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-122000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-70000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-173000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-105000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-174000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-506000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>158000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-555000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>416000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-63000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-61000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-242000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-46000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-58000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-222000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-80000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-133000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-84000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-77000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>9000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E101" s="3">
         <v>31000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>158000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-123000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-105000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-41000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-40000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-76000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>95000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>45000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-38000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>38000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>16000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-78000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>38000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>23000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-47000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1883000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1035000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2199000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-831000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1965000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-680000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>646000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1486000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3636000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4114000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>282000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1574000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5091000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>453000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-152000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1392000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>489000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-485000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>399000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>770000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1137000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2246000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>577000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>757000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>719000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>375000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>107000</v>
       </c>
     </row>
